--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2035.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2035.xlsx
@@ -594,58 +594,58 @@
         <v>1206</v>
       </c>
       <c r="B3" t="n">
-        <v>1876.1</v>
+        <v>1876.07</v>
       </c>
       <c r="C3" t="n">
-        <v>7808.139999999998</v>
+        <v>7808.029999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>842.05431372549</v>
+        <v>842.042450980392</v>
       </c>
       <c r="E3" t="n">
-        <v>765.5039215686273</v>
+        <v>765.4931372549019</v>
       </c>
       <c r="F3" t="n">
-        <v>688.9535294117645</v>
+        <v>688.9438235294116</v>
       </c>
       <c r="G3" t="n">
-        <v>612.4031372549018</v>
+        <v>612.3945098039214</v>
       </c>
       <c r="H3" t="n">
-        <v>612.4031372549018</v>
+        <v>612.3945098039214</v>
       </c>
       <c r="I3" t="n">
-        <v>612.4031372549018</v>
+        <v>612.3945098039214</v>
       </c>
       <c r="J3" t="n">
-        <v>535.8527450980391</v>
+        <v>535.8451960784313</v>
       </c>
       <c r="K3" t="n">
-        <v>459.3023529411764</v>
+        <v>459.295882352941</v>
       </c>
       <c r="L3" t="n">
-        <v>306.2015686274509</v>
+        <v>306.1972549019607</v>
       </c>
       <c r="M3" t="n">
-        <v>842.05431372549</v>
+        <v>842.042450980392</v>
       </c>
       <c r="N3" t="n">
-        <v>306.2015686274509</v>
+        <v>306.1972549019607</v>
       </c>
       <c r="O3" t="n">
-        <v>306.2015686274509</v>
+        <v>306.1972549019607</v>
       </c>
       <c r="P3" t="n">
-        <v>306.2015686274509</v>
+        <v>306.1972549019607</v>
       </c>
       <c r="Q3" t="n">
-        <v>229.6511764705882</v>
+        <v>229.6479411764705</v>
       </c>
       <c r="R3" t="n">
-        <v>153.1007843137255</v>
+        <v>153.0986274509804</v>
       </c>
       <c r="S3" t="n">
-        <v>229.6511764705882</v>
+        <v>229.6479411764705</v>
       </c>
     </row>
     <row r="4">
@@ -771,58 +771,58 @@
         <v>2303</v>
       </c>
       <c r="B6" t="n">
-        <v>3388.5</v>
+        <v>3388.41</v>
       </c>
       <c r="C6" t="n">
-        <v>14293.38</v>
+        <v>14292.98</v>
       </c>
       <c r="D6" t="n">
-        <v>1572.2718</v>
+        <v>1572.2278</v>
       </c>
       <c r="E6" t="n">
-        <v>1429.338</v>
+        <v>1429.298</v>
       </c>
       <c r="F6" t="n">
-        <v>1286.4042</v>
+        <v>1286.3682</v>
       </c>
       <c r="G6" t="n">
-        <v>1143.4704</v>
+        <v>1143.4384</v>
       </c>
       <c r="H6" t="n">
-        <v>1143.4704</v>
+        <v>1143.4384</v>
       </c>
       <c r="I6" t="n">
-        <v>1143.4704</v>
+        <v>1143.4384</v>
       </c>
       <c r="J6" t="n">
-        <v>1000.5366</v>
+        <v>1000.5086</v>
       </c>
       <c r="K6" t="n">
-        <v>857.6027999999998</v>
+        <v>857.5787999999998</v>
       </c>
       <c r="L6" t="n">
-        <v>571.7351999999998</v>
+        <v>571.7191999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>1572.2718</v>
+        <v>1572.2278</v>
       </c>
       <c r="N6" t="n">
-        <v>571.7351999999998</v>
+        <v>571.7191999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>571.7351999999998</v>
+        <v>571.7191999999999</v>
       </c>
       <c r="P6" t="n">
-        <v>428.8013999999999</v>
+        <v>428.7893999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>428.8013999999999</v>
+        <v>428.7893999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>285.8675999999999</v>
+        <v>285.8595999999999</v>
       </c>
       <c r="S6" t="n">
-        <v>285.8675999999999</v>
+        <v>285.8595999999999</v>
       </c>
     </row>
     <row r="7">
@@ -830,58 +830,58 @@
         <v>2101</v>
       </c>
       <c r="B7" t="n">
-        <v>1688.91</v>
+        <v>1688.66</v>
       </c>
       <c r="C7" t="n">
-        <v>8559.99</v>
+        <v>8558.85</v>
       </c>
       <c r="D7" t="n">
-        <v>1017.028514851485</v>
+        <v>1016.893069306931</v>
       </c>
       <c r="E7" t="n">
-        <v>932.2761386138613</v>
+        <v>932.1519801980198</v>
       </c>
       <c r="F7" t="n">
-        <v>847.5237623762376</v>
+        <v>847.410891089109</v>
       </c>
       <c r="G7" t="n">
-        <v>678.0190099009901</v>
+        <v>677.9287128712872</v>
       </c>
       <c r="H7" t="n">
-        <v>678.0190099009901</v>
+        <v>677.9287128712872</v>
       </c>
       <c r="I7" t="n">
-        <v>678.0190099009901</v>
+        <v>677.9287128712872</v>
       </c>
       <c r="J7" t="n">
-        <v>593.2666336633664</v>
+        <v>593.1876237623763</v>
       </c>
       <c r="K7" t="n">
-        <v>508.5142574257425</v>
+        <v>508.4465346534653</v>
       </c>
       <c r="L7" t="n">
-        <v>339.0095049504951</v>
+        <v>338.9643564356436</v>
       </c>
       <c r="M7" t="n">
-        <v>1017.028514851485</v>
+        <v>1016.893069306931</v>
       </c>
       <c r="N7" t="n">
-        <v>254.2571287128713</v>
+        <v>254.2232673267327</v>
       </c>
       <c r="O7" t="n">
-        <v>254.2571287128713</v>
+        <v>254.2232673267327</v>
       </c>
       <c r="P7" t="n">
-        <v>254.2571287128713</v>
+        <v>254.2232673267327</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.5047524752475</v>
+        <v>169.4821782178218</v>
       </c>
       <c r="R7" t="n">
-        <v>169.5047524752475</v>
+        <v>169.4821782178218</v>
       </c>
       <c r="S7" t="n">
-        <v>169.5047524752475</v>
+        <v>169.4821782178218</v>
       </c>
     </row>
     <row r="8">
@@ -889,58 +889,58 @@
         <v>3605</v>
       </c>
       <c r="B8" t="n">
-        <v>514.67</v>
+        <v>514.64</v>
       </c>
       <c r="C8" t="n">
-        <v>2037.309999999999</v>
+        <v>2037.139999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>226.3677777777777</v>
+        <v>226.3488888888888</v>
       </c>
       <c r="E8" t="n">
-        <v>185.2099999999999</v>
+        <v>185.1945454545454</v>
       </c>
       <c r="F8" t="n">
-        <v>164.6311111111111</v>
+        <v>164.6173737373737</v>
       </c>
       <c r="G8" t="n">
-        <v>144.0522222222222</v>
+        <v>144.040202020202</v>
       </c>
       <c r="H8" t="n">
-        <v>164.6311111111111</v>
+        <v>164.6173737373737</v>
       </c>
       <c r="I8" t="n">
-        <v>164.6311111111111</v>
+        <v>164.6173737373737</v>
       </c>
       <c r="J8" t="n">
-        <v>144.0522222222222</v>
+        <v>144.040202020202</v>
       </c>
       <c r="K8" t="n">
-        <v>123.4733333333333</v>
+        <v>123.4630303030303</v>
       </c>
       <c r="L8" t="n">
-        <v>82.31555555555553</v>
+        <v>82.30868686868685</v>
       </c>
       <c r="M8" t="n">
-        <v>205.7888888888888</v>
+        <v>205.7717171717171</v>
       </c>
       <c r="N8" t="n">
-        <v>82.31555555555553</v>
+        <v>82.30868686868685</v>
       </c>
       <c r="O8" t="n">
-        <v>82.31555555555553</v>
+        <v>82.30868686868685</v>
       </c>
       <c r="P8" t="n">
-        <v>82.31555555555553</v>
+        <v>82.30868686868685</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.73666666666664</v>
+        <v>61.73151515151513</v>
       </c>
       <c r="R8" t="n">
-        <v>61.73666666666664</v>
+        <v>61.73151515151513</v>
       </c>
       <c r="S8" t="n">
-        <v>61.73666666666664</v>
+        <v>61.73151515151513</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         <v>2404</v>
       </c>
       <c r="B10" t="n">
-        <v>1377.92</v>
+        <v>1377.65</v>
       </c>
       <c r="C10" t="n">
-        <v>6129.99</v>
+        <v>6128.74</v>
       </c>
       <c r="D10" t="n">
-        <v>721.175294117647</v>
+        <v>721.0282352941176</v>
       </c>
       <c r="E10" t="n">
-        <v>661.0773529411765</v>
+        <v>660.9425490196079</v>
       </c>
       <c r="F10" t="n">
-        <v>600.9794117647059</v>
+        <v>600.8568627450981</v>
       </c>
       <c r="G10" t="n">
-        <v>540.8814705882352</v>
+        <v>540.7711764705882</v>
       </c>
       <c r="H10" t="n">
-        <v>480.7835294117647</v>
+        <v>480.6854901960784</v>
       </c>
       <c r="I10" t="n">
-        <v>480.7835294117647</v>
+        <v>480.6854901960784</v>
       </c>
       <c r="J10" t="n">
-        <v>420.6855882352941</v>
+        <v>420.5998039215687</v>
       </c>
       <c r="K10" t="n">
-        <v>300.489705882353</v>
+        <v>300.428431372549</v>
       </c>
       <c r="L10" t="n">
-        <v>240.3917647058823</v>
+        <v>240.3427450980392</v>
       </c>
       <c r="M10" t="n">
-        <v>721.175294117647</v>
+        <v>721.0282352941176</v>
       </c>
       <c r="N10" t="n">
-        <v>240.3917647058823</v>
+        <v>240.3427450980392</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2938235294118</v>
+        <v>180.2570588235294</v>
       </c>
       <c r="P10" t="n">
-        <v>180.2938235294118</v>
+        <v>180.2570588235294</v>
       </c>
       <c r="Q10" t="n">
-        <v>120.1958823529412</v>
+        <v>120.1713725490196</v>
       </c>
       <c r="R10" t="n">
-        <v>120.1958823529412</v>
+        <v>120.1713725490196</v>
       </c>
       <c r="S10" t="n">
-        <v>120.1958823529412</v>
+        <v>120.1713725490196</v>
       </c>
     </row>
     <row r="11">
@@ -1066,58 +1066,58 @@
         <v>6402</v>
       </c>
       <c r="B11" t="n">
-        <v>4776.08</v>
+        <v>4775.99</v>
       </c>
       <c r="C11" t="n">
-        <v>24299.74</v>
+        <v>24299.34</v>
       </c>
       <c r="D11" t="n">
-        <v>2858.792941176471</v>
+        <v>2858.745882352941</v>
       </c>
       <c r="E11" t="n">
-        <v>2620.560196078432</v>
+        <v>2620.51705882353</v>
       </c>
       <c r="F11" t="n">
-        <v>2382.327450980392</v>
+        <v>2382.288235294118</v>
       </c>
       <c r="G11" t="n">
-        <v>2144.094705882353</v>
+        <v>2144.059411764706</v>
       </c>
       <c r="H11" t="n">
-        <v>1905.861960784314</v>
+        <v>1905.830588235294</v>
       </c>
       <c r="I11" t="n">
-        <v>1905.861960784314</v>
+        <v>1905.830588235294</v>
       </c>
       <c r="J11" t="n">
-        <v>1667.629215686275</v>
+        <v>1667.601764705882</v>
       </c>
       <c r="K11" t="n">
-        <v>1429.396470588235</v>
+        <v>1429.37294117647</v>
       </c>
       <c r="L11" t="n">
-        <v>952.9309803921569</v>
+        <v>952.915294117647</v>
       </c>
       <c r="M11" t="n">
-        <v>2858.792941176471</v>
+        <v>2858.745882352941</v>
       </c>
       <c r="N11" t="n">
-        <v>952.9309803921569</v>
+        <v>952.915294117647</v>
       </c>
       <c r="O11" t="n">
-        <v>714.6982352941177</v>
+        <v>714.6864705882352</v>
       </c>
       <c r="P11" t="n">
-        <v>714.6982352941177</v>
+        <v>714.6864705882352</v>
       </c>
       <c r="Q11" t="n">
-        <v>476.4654901960785</v>
+        <v>476.4576470588235</v>
       </c>
       <c r="R11" t="n">
-        <v>238.2327450980392</v>
+        <v>238.2288235294118</v>
       </c>
       <c r="S11" t="n">
-        <v>476.4654901960785</v>
+        <v>476.4576470588235</v>
       </c>
     </row>
     <row r="12">
@@ -1125,58 +1125,58 @@
         <v>209</v>
       </c>
       <c r="B12" t="n">
-        <v>105.28</v>
+        <v>105.25</v>
       </c>
       <c r="C12" t="n">
-        <v>499.54</v>
+        <v>499.3899999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>44.95859999999999</v>
+        <v>44.94509999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>39.96319999999999</v>
+        <v>39.95119999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>34.9678</v>
+        <v>34.9573</v>
       </c>
       <c r="G12" t="n">
-        <v>29.97239999999999</v>
+        <v>29.96339999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>29.97239999999999</v>
+        <v>29.96339999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>34.9678</v>
+        <v>34.9573</v>
       </c>
       <c r="J12" t="n">
-        <v>29.97239999999999</v>
+        <v>29.96339999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>29.97239999999999</v>
+        <v>29.96339999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>34.9678</v>
+        <v>34.9573</v>
       </c>
       <c r="M12" t="n">
-        <v>44.95859999999999</v>
+        <v>44.94509999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>24.977</v>
+        <v>24.96949999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>24.977</v>
+        <v>24.96949999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>19.9816</v>
+        <v>19.9756</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.9816</v>
+        <v>19.9756</v>
       </c>
       <c r="R12" t="n">
-        <v>19.9816</v>
+        <v>19.9756</v>
       </c>
       <c r="S12" t="n">
-        <v>34.9678</v>
+        <v>34.9573</v>
       </c>
     </row>
     <row r="13">
@@ -1184,507 +1184,435 @@
         <v>206</v>
       </c>
       <c r="B13" t="n">
-        <v>150.89</v>
+        <v>150.88</v>
       </c>
       <c r="C13" t="n">
-        <v>724.6099999999999</v>
+        <v>724.5499999999997</v>
       </c>
       <c r="D13" t="n">
-        <v>65.21489999999999</v>
+        <v>65.20949999999998</v>
       </c>
       <c r="E13" t="n">
-        <v>57.96879999999999</v>
+        <v>57.96399999999998</v>
       </c>
       <c r="F13" t="n">
-        <v>50.7227</v>
+        <v>50.71849999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>43.47659999999999</v>
+        <v>43.47299999999998</v>
       </c>
       <c r="H13" t="n">
-        <v>43.47659999999999</v>
+        <v>43.47299999999998</v>
       </c>
       <c r="I13" t="n">
-        <v>50.7227</v>
+        <v>50.71849999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>43.47659999999999</v>
+        <v>43.47299999999998</v>
       </c>
       <c r="K13" t="n">
-        <v>43.47659999999999</v>
+        <v>43.47299999999998</v>
       </c>
       <c r="L13" t="n">
-        <v>50.7227</v>
+        <v>50.71849999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>65.21489999999999</v>
+        <v>65.20949999999998</v>
       </c>
       <c r="N13" t="n">
-        <v>36.23049999999999</v>
+        <v>36.22749999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>36.23049999999999</v>
+        <v>36.22749999999999</v>
       </c>
       <c r="P13" t="n">
-        <v>28.9844</v>
+        <v>28.98199999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.9844</v>
+        <v>28.98199999999999</v>
       </c>
       <c r="R13" t="n">
-        <v>28.9844</v>
+        <v>28.98199999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>50.7227</v>
+        <v>50.71849999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>205</v>
-      </c>
-      <c r="B14" t="n">
-        <v>327.56</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1573.75</v>
-      </c>
-      <c r="D14" t="n">
-        <v>141.6375</v>
-      </c>
-      <c r="E14" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="F14" t="n">
-        <v>110.1625</v>
-      </c>
-      <c r="G14" t="n">
-        <v>94.42499999999997</v>
-      </c>
-      <c r="H14" t="n">
-        <v>94.42499999999997</v>
-      </c>
-      <c r="I14" t="n">
-        <v>110.1625</v>
-      </c>
-      <c r="J14" t="n">
-        <v>94.42499999999997</v>
-      </c>
-      <c r="K14" t="n">
-        <v>94.42499999999997</v>
-      </c>
-      <c r="L14" t="n">
-        <v>110.1625</v>
-      </c>
-      <c r="M14" t="n">
-        <v>141.6375</v>
-      </c>
-      <c r="N14" t="n">
-        <v>78.68749999999999</v>
-      </c>
-      <c r="O14" t="n">
-        <v>78.68749999999999</v>
-      </c>
-      <c r="P14" t="n">
-        <v>62.94999999999999</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>62.94999999999999</v>
-      </c>
-      <c r="R14" t="n">
-        <v>62.94999999999999</v>
-      </c>
-      <c r="S14" t="n">
-        <v>110.1625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B15" t="n">
-        <v>125.91</v>
+        <v>327.54</v>
       </c>
       <c r="C15" t="n">
-        <v>599.6499999999999</v>
+        <v>1573.64</v>
       </c>
       <c r="D15" t="n">
-        <v>53.96849999999998</v>
+        <v>141.6276</v>
       </c>
       <c r="E15" t="n">
-        <v>47.97199999999999</v>
+        <v>125.8912</v>
       </c>
       <c r="F15" t="n">
-        <v>41.9755</v>
+        <v>110.1548</v>
       </c>
       <c r="G15" t="n">
-        <v>35.97899999999999</v>
+        <v>94.41839999999998</v>
       </c>
       <c r="H15" t="n">
-        <v>35.97899999999999</v>
+        <v>94.41839999999998</v>
       </c>
       <c r="I15" t="n">
-        <v>41.9755</v>
+        <v>110.1548</v>
       </c>
       <c r="J15" t="n">
-        <v>35.97899999999999</v>
+        <v>94.41839999999998</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97899999999999</v>
+        <v>94.41839999999998</v>
       </c>
       <c r="L15" t="n">
-        <v>41.9755</v>
+        <v>110.1548</v>
       </c>
       <c r="M15" t="n">
-        <v>53.96849999999998</v>
+        <v>141.6276</v>
       </c>
       <c r="N15" t="n">
-        <v>29.98249999999999</v>
+        <v>78.68199999999999</v>
       </c>
       <c r="O15" t="n">
-        <v>29.98249999999999</v>
+        <v>78.68199999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>23.986</v>
+        <v>62.94559999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>23.986</v>
+        <v>62.94559999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>23.986</v>
+        <v>62.94559999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>41.9755</v>
+        <v>110.1548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3607</v>
+        <v>202</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>125.88</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>599.51</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>53.95589999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>47.96079999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>41.9657</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>35.97059999999999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>35.97059999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>41.9657</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>35.97059999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>35.97059999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>41.9657</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>53.95589999999999</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>29.97549999999999</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>29.97549999999999</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>23.9804</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.9804</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>23.9804</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>41.9657</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6504</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
+        <v>3607</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>0</v>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1303</v>
-      </c>
-      <c r="B18" t="n">
-        <v>590.34</v>
-      </c>
+        <v>6504</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>2656.52</v>
-      </c>
-      <c r="D18" t="n">
-        <v>263.0217821782177</v>
-      </c>
-      <c r="E18" t="n">
-        <v>236.719603960396</v>
-      </c>
-      <c r="F18" t="n">
-        <v>236.719603960396</v>
-      </c>
-      <c r="G18" t="n">
-        <v>210.4174257425742</v>
-      </c>
-      <c r="H18" t="n">
-        <v>184.1152475247524</v>
-      </c>
-      <c r="I18" t="n">
-        <v>184.1152475247524</v>
-      </c>
-      <c r="J18" t="n">
-        <v>184.1152475247524</v>
-      </c>
-      <c r="K18" t="n">
-        <v>184.1152475247524</v>
-      </c>
-      <c r="L18" t="n">
-        <v>157.8130693069307</v>
-      </c>
-      <c r="M18" t="n">
-        <v>263.0217821782177</v>
-      </c>
-      <c r="N18" t="n">
-        <v>105.2087128712871</v>
-      </c>
-      <c r="O18" t="n">
-        <v>105.2087128712871</v>
-      </c>
-      <c r="P18" t="n">
-        <v>78.90653465346533</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>78.90653465346533</v>
-      </c>
-      <c r="R18" t="n">
-        <v>78.90653465346533</v>
-      </c>
-      <c r="S18" t="n">
-        <v>105.2087128712871</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6503</v>
+        <v>1303</v>
       </c>
       <c r="B19" t="n">
-        <v>1128.91</v>
+        <v>590.26</v>
       </c>
       <c r="C19" t="n">
-        <v>5080.109999999999</v>
+        <v>2656.15</v>
       </c>
       <c r="D19" t="n">
-        <v>558.8120999999999</v>
+        <v>262.9851485148515</v>
       </c>
       <c r="E19" t="n">
-        <v>508.0109999999999</v>
+        <v>236.6866336633663</v>
       </c>
       <c r="F19" t="n">
-        <v>457.2098999999999</v>
+        <v>236.6866336633663</v>
       </c>
       <c r="G19" t="n">
-        <v>406.4087999999999</v>
+        <v>210.3881188118812</v>
       </c>
       <c r="H19" t="n">
-        <v>355.6077</v>
+        <v>184.089603960396</v>
       </c>
       <c r="I19" t="n">
-        <v>406.4087999999999</v>
+        <v>184.089603960396</v>
       </c>
       <c r="J19" t="n">
-        <v>355.6077</v>
+        <v>184.089603960396</v>
       </c>
       <c r="K19" t="n">
-        <v>304.8065999999999</v>
+        <v>184.089603960396</v>
       </c>
       <c r="L19" t="n">
-        <v>254.0054999999999</v>
+        <v>157.7910891089109</v>
       </c>
       <c r="M19" t="n">
-        <v>508.0109999999999</v>
+        <v>262.9851485148515</v>
       </c>
       <c r="N19" t="n">
-        <v>203.2044</v>
+        <v>105.1940594059406</v>
       </c>
       <c r="O19" t="n">
-        <v>203.2044</v>
+        <v>105.1940594059406</v>
       </c>
       <c r="P19" t="n">
-        <v>152.4032999999999</v>
+        <v>78.89554455445543</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.4032999999999</v>
+        <v>78.89554455445543</v>
       </c>
       <c r="R19" t="n">
-        <v>101.6022</v>
+        <v>78.89554455445543</v>
       </c>
       <c r="S19" t="n">
-        <v>152.4032999999999</v>
+        <v>105.1940594059406</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6505</v>
+        <v>6503</v>
       </c>
       <c r="B20" t="n">
-        <v>1774.83</v>
+        <v>1128.9</v>
       </c>
       <c r="C20" t="n">
-        <v>7986.749999999999</v>
+        <v>5080.029999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>878.5424999999998</v>
+        <v>558.8032999999998</v>
       </c>
       <c r="E20" t="n">
-        <v>798.6749999999998</v>
+        <v>508.0029999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>718.8074999999999</v>
+        <v>457.2026999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>638.9399999999999</v>
+        <v>406.4023999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>559.0725</v>
+        <v>355.6021</v>
       </c>
       <c r="I20" t="n">
-        <v>638.9399999999999</v>
+        <v>406.4023999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>559.0725</v>
+        <v>355.6021</v>
       </c>
       <c r="K20" t="n">
-        <v>479.2049999999999</v>
+        <v>304.8017999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>399.3374999999999</v>
+        <v>254.0014999999999</v>
       </c>
       <c r="M20" t="n">
-        <v>798.6749999999998</v>
+        <v>508.0029999999999</v>
       </c>
       <c r="N20" t="n">
-        <v>319.47</v>
+        <v>203.2012</v>
       </c>
       <c r="O20" t="n">
-        <v>319.47</v>
+        <v>203.2012</v>
       </c>
       <c r="P20" t="n">
-        <v>239.6024999999999</v>
+        <v>152.4009</v>
       </c>
       <c r="Q20" t="n">
-        <v>239.6024999999999</v>
+        <v>152.4009</v>
       </c>
       <c r="R20" t="n">
-        <v>159.735</v>
+        <v>101.6006</v>
       </c>
       <c r="S20" t="n">
-        <v>239.6024999999999</v>
+        <v>152.4009</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6701</v>
+        <v>6505</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1774.7</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
+        <v>7986.159999999998</v>
+      </c>
+      <c r="D21" t="n">
+        <v>878.4775999999997</v>
+      </c>
+      <c r="E21" t="n">
+        <v>798.6159999999998</v>
+      </c>
+      <c r="F21" t="n">
+        <v>718.7543999999998</v>
+      </c>
+      <c r="G21" t="n">
+        <v>638.8927999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>559.0311999999999</v>
+      </c>
+      <c r="I21" t="n">
+        <v>638.8927999999999</v>
+      </c>
+      <c r="J21" t="n">
+        <v>559.0311999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>479.1695999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>399.3079999999999</v>
+      </c>
+      <c r="M21" t="n">
+        <v>798.6159999999998</v>
+      </c>
+      <c r="N21" t="n">
+        <v>319.4463999999999</v>
+      </c>
+      <c r="O21" t="n">
+        <v>319.4463999999999</v>
+      </c>
+      <c r="P21" t="n">
+        <v>239.5847999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>239.5847999999999</v>
+      </c>
+      <c r="R21" t="n">
+        <v>159.7232</v>
+      </c>
+      <c r="S21" t="n">
+        <v>239.5847999999999</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6703</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+        <v>6701</v>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>0</v>
       </c>
@@ -1707,11 +1635,9 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6702</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0</v>
-      </c>
+        <v>6703</v>
+      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>0</v>
       </c>
@@ -1734,2543 +1660,2401 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6610</v>
-      </c>
-      <c r="B24" t="n">
-        <v>241.77</v>
-      </c>
+        <v>6702</v>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>996.4999999999998</v>
-      </c>
-      <c r="D24" t="n">
-        <v>110.7222222222222</v>
-      </c>
-      <c r="E24" t="n">
-        <v>100.6565656565656</v>
-      </c>
-      <c r="F24" t="n">
-        <v>90.59090909090905</v>
-      </c>
-      <c r="G24" t="n">
-        <v>80.5252525252525</v>
-      </c>
-      <c r="H24" t="n">
-        <v>70.45959595959594</v>
-      </c>
-      <c r="I24" t="n">
-        <v>70.45959595959594</v>
-      </c>
-      <c r="J24" t="n">
-        <v>70.45959595959594</v>
-      </c>
-      <c r="K24" t="n">
-        <v>60.39393939393938</v>
-      </c>
-      <c r="L24" t="n">
-        <v>50.32828282828282</v>
-      </c>
-      <c r="M24" t="n">
-        <v>100.6565656565656</v>
-      </c>
-      <c r="N24" t="n">
-        <v>40.26262626262625</v>
-      </c>
-      <c r="O24" t="n">
-        <v>40.26262626262625</v>
-      </c>
-      <c r="P24" t="n">
-        <v>30.19696969696969</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>30.19696969696969</v>
-      </c>
-      <c r="R24" t="n">
-        <v>20.13131313131312</v>
-      </c>
-      <c r="S24" t="n">
-        <v>30.19696969696969</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6602</v>
+        <v>6610</v>
       </c>
       <c r="B25" t="n">
-        <v>772.46</v>
+        <v>241.77</v>
       </c>
       <c r="C25" t="n">
-        <v>3237.749999999999</v>
+        <v>996.4999999999998</v>
       </c>
       <c r="D25" t="n">
-        <v>359.7499999999999</v>
+        <v>110.7222222222222</v>
       </c>
       <c r="E25" t="n">
-        <v>327.0454545454544</v>
+        <v>100.6565656565656</v>
       </c>
       <c r="F25" t="n">
-        <v>294.340909090909</v>
+        <v>90.59090909090905</v>
       </c>
       <c r="G25" t="n">
-        <v>261.6363636363636</v>
+        <v>80.5252525252525</v>
       </c>
       <c r="H25" t="n">
-        <v>228.9318181818181</v>
+        <v>70.45959595959594</v>
       </c>
       <c r="I25" t="n">
-        <v>228.9318181818181</v>
+        <v>70.45959595959594</v>
       </c>
       <c r="J25" t="n">
-        <v>228.9318181818181</v>
+        <v>70.45959595959594</v>
       </c>
       <c r="K25" t="n">
-        <v>196.2272727272727</v>
+        <v>60.39393939393938</v>
       </c>
       <c r="L25" t="n">
-        <v>163.5227272727272</v>
+        <v>50.32828282828282</v>
       </c>
       <c r="M25" t="n">
-        <v>327.0454545454544</v>
+        <v>100.6565656565656</v>
       </c>
       <c r="N25" t="n">
-        <v>130.8181818181818</v>
+        <v>40.26262626262625</v>
       </c>
       <c r="O25" t="n">
-        <v>130.8181818181818</v>
+        <v>40.26262626262625</v>
       </c>
       <c r="P25" t="n">
-        <v>98.11363636363633</v>
+        <v>30.19696969696969</v>
       </c>
       <c r="Q25" t="n">
-        <v>98.11363636363633</v>
+        <v>30.19696969696969</v>
       </c>
       <c r="R25" t="n">
-        <v>65.40909090909089</v>
+        <v>20.13131313131312</v>
       </c>
       <c r="S25" t="n">
-        <v>98.11363636363633</v>
+        <v>30.19696969696969</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6603</v>
+        <v>6602</v>
       </c>
       <c r="B26" t="n">
-        <v>884.54</v>
+        <v>772.46</v>
       </c>
       <c r="C26" t="n">
-        <v>3699.709999999999</v>
+        <v>3237.749999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>411.0788888888887</v>
+        <v>359.7499999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>373.7080808080807</v>
+        <v>327.0454545454544</v>
       </c>
       <c r="F26" t="n">
-        <v>336.3372727272726</v>
+        <v>294.340909090909</v>
       </c>
       <c r="G26" t="n">
-        <v>298.9664646464645</v>
+        <v>261.6363636363636</v>
       </c>
       <c r="H26" t="n">
-        <v>261.5956565656565</v>
+        <v>228.9318181818181</v>
       </c>
       <c r="I26" t="n">
-        <v>261.5956565656565</v>
+        <v>228.9318181818181</v>
       </c>
       <c r="J26" t="n">
-        <v>261.5956565656565</v>
+        <v>228.9318181818181</v>
       </c>
       <c r="K26" t="n">
-        <v>224.2248484848484</v>
+        <v>196.2272727272727</v>
       </c>
       <c r="L26" t="n">
-        <v>186.8540404040403</v>
+        <v>163.5227272727272</v>
       </c>
       <c r="M26" t="n">
-        <v>373.7080808080807</v>
+        <v>327.0454545454544</v>
       </c>
       <c r="N26" t="n">
-        <v>149.4832323232323</v>
+        <v>130.8181818181818</v>
       </c>
       <c r="O26" t="n">
-        <v>149.4832323232323</v>
+        <v>130.8181818181818</v>
       </c>
       <c r="P26" t="n">
-        <v>112.1124242424242</v>
+        <v>98.11363636363633</v>
       </c>
       <c r="Q26" t="n">
-        <v>112.1124242424242</v>
+        <v>98.11363636363633</v>
       </c>
       <c r="R26" t="n">
-        <v>74.74161616161614</v>
+        <v>65.40909090909089</v>
       </c>
       <c r="S26" t="n">
-        <v>112.1124242424242</v>
+        <v>98.11363636363633</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6604</v>
+        <v>6603</v>
       </c>
       <c r="B27" t="n">
-        <v>352.32</v>
+        <v>884.54</v>
       </c>
       <c r="C27" t="n">
-        <v>1465.64</v>
+        <v>3699.709999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>162.8488888888888</v>
+        <v>411.0788888888887</v>
       </c>
       <c r="E27" t="n">
-        <v>148.0444444444444</v>
+        <v>373.7080808080807</v>
       </c>
       <c r="F27" t="n">
-        <v>133.24</v>
+        <v>336.3372727272726</v>
       </c>
       <c r="G27" t="n">
-        <v>118.4355555555555</v>
+        <v>298.9664646464645</v>
       </c>
       <c r="H27" t="n">
-        <v>103.6311111111111</v>
+        <v>261.5956565656565</v>
       </c>
       <c r="I27" t="n">
-        <v>103.6311111111111</v>
+        <v>261.5956565656565</v>
       </c>
       <c r="J27" t="n">
-        <v>103.6311111111111</v>
+        <v>261.5956565656565</v>
       </c>
       <c r="K27" t="n">
-        <v>88.82666666666664</v>
+        <v>224.2248484848484</v>
       </c>
       <c r="L27" t="n">
-        <v>74.02222222222221</v>
+        <v>186.8540404040403</v>
       </c>
       <c r="M27" t="n">
-        <v>148.0444444444444</v>
+        <v>373.7080808080807</v>
       </c>
       <c r="N27" t="n">
-        <v>59.21777777777777</v>
+        <v>149.4832323232323</v>
       </c>
       <c r="O27" t="n">
-        <v>59.21777777777777</v>
+        <v>149.4832323232323</v>
       </c>
       <c r="P27" t="n">
-        <v>44.41333333333332</v>
+        <v>112.1124242424242</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.41333333333332</v>
+        <v>112.1124242424242</v>
       </c>
       <c r="R27" t="n">
-        <v>29.60888888888888</v>
+        <v>74.74161616161614</v>
       </c>
       <c r="S27" t="n">
-        <v>44.41333333333332</v>
+        <v>112.1124242424242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6605</v>
+        <v>6604</v>
       </c>
       <c r="B28" t="n">
-        <v>303.99</v>
+        <v>352.32</v>
       </c>
       <c r="C28" t="n">
-        <v>1291.5</v>
+        <v>1465.64</v>
       </c>
       <c r="D28" t="n">
-        <v>143.4999999999999</v>
+        <v>162.8488888888888</v>
       </c>
       <c r="E28" t="n">
-        <v>130.4545454545454</v>
+        <v>148.0444444444444</v>
       </c>
       <c r="F28" t="n">
-        <v>117.4090909090909</v>
+        <v>133.24</v>
       </c>
       <c r="G28" t="n">
-        <v>104.3636363636363</v>
+        <v>118.4355555555555</v>
       </c>
       <c r="H28" t="n">
-        <v>91.3181818181818</v>
+        <v>103.6311111111111</v>
       </c>
       <c r="I28" t="n">
-        <v>91.3181818181818</v>
+        <v>103.6311111111111</v>
       </c>
       <c r="J28" t="n">
-        <v>91.3181818181818</v>
+        <v>103.6311111111111</v>
       </c>
       <c r="K28" t="n">
-        <v>78.27272727272725</v>
+        <v>88.82666666666664</v>
       </c>
       <c r="L28" t="n">
-        <v>65.22727272727271</v>
+        <v>74.02222222222221</v>
       </c>
       <c r="M28" t="n">
-        <v>130.4545454545454</v>
+        <v>148.0444444444444</v>
       </c>
       <c r="N28" t="n">
-        <v>52.18181818181817</v>
+        <v>59.21777777777777</v>
       </c>
       <c r="O28" t="n">
-        <v>52.18181818181817</v>
+        <v>59.21777777777777</v>
       </c>
       <c r="P28" t="n">
-        <v>39.13636363636363</v>
+        <v>44.41333333333332</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.13636363636363</v>
+        <v>44.41333333333332</v>
       </c>
       <c r="R28" t="n">
-        <v>26.09090909090908</v>
+        <v>29.60888888888888</v>
       </c>
       <c r="S28" t="n">
-        <v>39.13636363636363</v>
+        <v>44.41333333333332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6606</v>
+        <v>6605</v>
       </c>
       <c r="B29" t="n">
-        <v>1599.05</v>
+        <v>303.94</v>
       </c>
       <c r="C29" t="n">
-        <v>6751.589999999998</v>
+        <v>1291.29</v>
       </c>
       <c r="D29" t="n">
-        <v>750.1766666666665</v>
+        <v>143.4766666666666</v>
       </c>
       <c r="E29" t="n">
-        <v>681.9787878787877</v>
+        <v>130.4333333333333</v>
       </c>
       <c r="F29" t="n">
-        <v>613.7809090909088</v>
+        <v>117.3899999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>545.5830303030302</v>
+        <v>104.3466666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>477.3851515151514</v>
+        <v>91.30333333333331</v>
       </c>
       <c r="I29" t="n">
-        <v>477.3851515151514</v>
+        <v>91.30333333333331</v>
       </c>
       <c r="J29" t="n">
-        <v>477.3851515151514</v>
+        <v>91.30333333333331</v>
       </c>
       <c r="K29" t="n">
-        <v>409.1872727272726</v>
+        <v>78.25999999999998</v>
       </c>
       <c r="L29" t="n">
-        <v>340.9893939393938</v>
+        <v>65.21666666666664</v>
       </c>
       <c r="M29" t="n">
-        <v>681.9787878787877</v>
+        <v>130.4333333333333</v>
       </c>
       <c r="N29" t="n">
-        <v>272.7915151515151</v>
+        <v>52.17333333333332</v>
       </c>
       <c r="O29" t="n">
-        <v>272.7915151515151</v>
+        <v>52.17333333333332</v>
       </c>
       <c r="P29" t="n">
-        <v>204.5936363636363</v>
+        <v>39.12999999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>204.5936363636363</v>
+        <v>39.12999999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>136.3957575757576</v>
+        <v>26.08666666666666</v>
       </c>
       <c r="S29" t="n">
-        <v>204.5936363636363</v>
+        <v>39.12999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6507</v>
+        <v>6606</v>
       </c>
       <c r="B30" t="n">
-        <v>1196.23</v>
+        <v>1599</v>
       </c>
       <c r="C30" t="n">
-        <v>5063.729999999998</v>
+        <v>6751.369999999997</v>
       </c>
       <c r="D30" t="n">
-        <v>562.6366666666664</v>
+        <v>750.152222222222</v>
       </c>
       <c r="E30" t="n">
-        <v>511.4878787878786</v>
+        <v>681.9565656565654</v>
       </c>
       <c r="F30" t="n">
-        <v>460.3390909090907</v>
+        <v>613.7609090909089</v>
       </c>
       <c r="G30" t="n">
-        <v>409.1903030303029</v>
+        <v>545.5652525252524</v>
       </c>
       <c r="H30" t="n">
-        <v>358.0415151515151</v>
+        <v>477.3695959595958</v>
       </c>
       <c r="I30" t="n">
-        <v>358.0415151515151</v>
+        <v>477.3695959595958</v>
       </c>
       <c r="J30" t="n">
-        <v>358.0415151515151</v>
+        <v>477.3695959595958</v>
       </c>
       <c r="K30" t="n">
-        <v>306.8927272727271</v>
+        <v>409.1739393939392</v>
       </c>
       <c r="L30" t="n">
-        <v>255.7439393939393</v>
+        <v>340.9782828282827</v>
       </c>
       <c r="M30" t="n">
-        <v>511.4878787878786</v>
+        <v>681.9565656565654</v>
       </c>
       <c r="N30" t="n">
-        <v>204.5951515151515</v>
+        <v>272.7826262626262</v>
       </c>
       <c r="O30" t="n">
-        <v>204.5951515151515</v>
+        <v>272.7826262626262</v>
       </c>
       <c r="P30" t="n">
-        <v>153.4463636363636</v>
+        <v>204.5869696969696</v>
       </c>
       <c r="Q30" t="n">
-        <v>153.4463636363636</v>
+        <v>204.5869696969696</v>
       </c>
       <c r="R30" t="n">
-        <v>102.2975757575757</v>
+        <v>136.3913131313131</v>
       </c>
       <c r="S30" t="n">
-        <v>153.4463636363636</v>
+        <v>204.5869696969696</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6508</v>
+        <v>6507</v>
       </c>
       <c r="B31" t="n">
-        <v>1656.61</v>
+        <v>1196.13</v>
       </c>
       <c r="C31" t="n">
-        <v>7000.159999999998</v>
+        <v>5063.289999999998</v>
       </c>
       <c r="D31" t="n">
-        <v>777.7955555555553</v>
+        <v>562.5877777777775</v>
       </c>
       <c r="E31" t="n">
-        <v>707.0868686868685</v>
+        <v>511.4434343434342</v>
       </c>
       <c r="F31" t="n">
-        <v>636.3781818181816</v>
+        <v>460.2990909090907</v>
       </c>
       <c r="G31" t="n">
-        <v>565.6694949494948</v>
+        <v>409.1547474747474</v>
       </c>
       <c r="H31" t="n">
-        <v>494.960808080808</v>
+        <v>358.010404040404</v>
       </c>
       <c r="I31" t="n">
-        <v>494.960808080808</v>
+        <v>358.010404040404</v>
       </c>
       <c r="J31" t="n">
-        <v>494.960808080808</v>
+        <v>358.010404040404</v>
       </c>
       <c r="K31" t="n">
-        <v>424.2521212121211</v>
+        <v>306.8660606060605</v>
       </c>
       <c r="L31" t="n">
-        <v>353.5434343434342</v>
+        <v>255.7217171717171</v>
       </c>
       <c r="M31" t="n">
-        <v>707.0868686868685</v>
+        <v>511.4434343434342</v>
       </c>
       <c r="N31" t="n">
-        <v>282.8347474747474</v>
+        <v>204.5773737373737</v>
       </c>
       <c r="O31" t="n">
-        <v>282.8347474747474</v>
+        <v>204.5773737373737</v>
       </c>
       <c r="P31" t="n">
-        <v>212.1260606060605</v>
+        <v>153.4330303030303</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.1260606060605</v>
+        <v>153.4330303030303</v>
       </c>
       <c r="R31" t="n">
-        <v>141.4173737373737</v>
+        <v>102.2886868686868</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1260606060605</v>
+        <v>153.4330303030303</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6510</v>
+        <v>6508</v>
       </c>
       <c r="B32" t="n">
-        <v>517.65</v>
+        <v>1656.54</v>
       </c>
       <c r="C32" t="n">
-        <v>2193.409999999999</v>
+        <v>6999.819999999998</v>
       </c>
       <c r="D32" t="n">
-        <v>243.7122222222221</v>
+        <v>777.7577777777775</v>
       </c>
       <c r="E32" t="n">
-        <v>221.5565656565656</v>
+        <v>707.052525252525</v>
       </c>
       <c r="F32" t="n">
-        <v>199.400909090909</v>
+        <v>636.3472727272724</v>
       </c>
       <c r="G32" t="n">
-        <v>177.2452525252525</v>
+        <v>565.64202020202</v>
       </c>
       <c r="H32" t="n">
-        <v>155.0895959595959</v>
+        <v>494.9367676767675</v>
       </c>
       <c r="I32" t="n">
-        <v>155.0895959595959</v>
+        <v>494.9367676767675</v>
       </c>
       <c r="J32" t="n">
-        <v>155.0895959595959</v>
+        <v>494.9367676767675</v>
       </c>
       <c r="K32" t="n">
-        <v>132.9339393939393</v>
+        <v>424.231515151515</v>
       </c>
       <c r="L32" t="n">
-        <v>110.7782828282828</v>
+        <v>353.5262626262625</v>
       </c>
       <c r="M32" t="n">
-        <v>221.5565656565656</v>
+        <v>707.052525252525</v>
       </c>
       <c r="N32" t="n">
-        <v>88.62262626262623</v>
+        <v>282.82101010101</v>
       </c>
       <c r="O32" t="n">
-        <v>88.62262626262623</v>
+        <v>282.82101010101</v>
       </c>
       <c r="P32" t="n">
-        <v>66.46696969696967</v>
+        <v>212.1157575757575</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.46696969696967</v>
+        <v>212.1157575757575</v>
       </c>
       <c r="R32" t="n">
-        <v>44.31131313131311</v>
+        <v>141.410505050505</v>
       </c>
       <c r="S32" t="n">
-        <v>66.46696969696967</v>
+        <v>212.1157575757575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6509</v>
+        <v>6510</v>
       </c>
       <c r="B33" t="n">
-        <v>1241.45</v>
+        <v>517.59</v>
       </c>
       <c r="C33" t="n">
-        <v>5241.039999999998</v>
+        <v>2193.169999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>582.3377777777775</v>
+        <v>243.6855555555555</v>
       </c>
       <c r="E33" t="n">
-        <v>529.3979797979796</v>
+        <v>221.5323232323232</v>
       </c>
       <c r="F33" t="n">
-        <v>476.4581818181816</v>
+        <v>199.3790909090908</v>
       </c>
       <c r="G33" t="n">
-        <v>423.5183838383837</v>
+        <v>177.2258585858585</v>
       </c>
       <c r="H33" t="n">
-        <v>370.5785858585858</v>
+        <v>155.0726262626262</v>
       </c>
       <c r="I33" t="n">
-        <v>370.5785858585858</v>
+        <v>155.0726262626262</v>
       </c>
       <c r="J33" t="n">
-        <v>370.5785858585858</v>
+        <v>155.0726262626262</v>
       </c>
       <c r="K33" t="n">
-        <v>317.6387878787878</v>
+        <v>132.9193939393939</v>
       </c>
       <c r="L33" t="n">
-        <v>264.6989898989898</v>
+        <v>110.7661616161616</v>
       </c>
       <c r="M33" t="n">
-        <v>529.3979797979796</v>
+        <v>221.5323232323232</v>
       </c>
       <c r="N33" t="n">
-        <v>211.7591919191919</v>
+        <v>88.61292929292927</v>
       </c>
       <c r="O33" t="n">
-        <v>211.7591919191919</v>
+        <v>88.61292929292927</v>
       </c>
       <c r="P33" t="n">
-        <v>158.8193939393939</v>
+        <v>66.45969696969695</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.8193939393939</v>
+        <v>66.45969696969695</v>
       </c>
       <c r="R33" t="n">
-        <v>105.8795959595959</v>
+        <v>44.30646464646463</v>
       </c>
       <c r="S33" t="n">
-        <v>158.8193939393939</v>
+        <v>66.45969696969695</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6403</v>
+        <v>6509</v>
       </c>
       <c r="B34" t="n">
-        <v>1868.45</v>
+        <v>1241.42</v>
       </c>
       <c r="C34" t="n">
-        <v>8408.019999999999</v>
+        <v>5240.879999999998</v>
       </c>
       <c r="D34" t="n">
-        <v>924.8821999999998</v>
+        <v>582.3199999999998</v>
       </c>
       <c r="E34" t="n">
-        <v>840.8019999999999</v>
+        <v>529.3818181818181</v>
       </c>
       <c r="F34" t="n">
-        <v>756.7217999999999</v>
+        <v>476.4436363636362</v>
       </c>
       <c r="G34" t="n">
-        <v>672.6415999999999</v>
+        <v>423.5054545454544</v>
       </c>
       <c r="H34" t="n">
-        <v>588.5613999999999</v>
+        <v>370.5672727272727</v>
       </c>
       <c r="I34" t="n">
-        <v>672.6415999999999</v>
+        <v>370.5672727272727</v>
       </c>
       <c r="J34" t="n">
-        <v>588.5613999999999</v>
+        <v>370.5672727272727</v>
       </c>
       <c r="K34" t="n">
-        <v>504.4811999999999</v>
+        <v>317.6290909090908</v>
       </c>
       <c r="L34" t="n">
-        <v>420.401</v>
+        <v>264.690909090909</v>
       </c>
       <c r="M34" t="n">
-        <v>840.8019999999999</v>
+        <v>529.3818181818181</v>
       </c>
       <c r="N34" t="n">
-        <v>336.3208</v>
+        <v>211.7527272727272</v>
       </c>
       <c r="O34" t="n">
-        <v>336.3208</v>
+        <v>211.7527272727272</v>
       </c>
       <c r="P34" t="n">
-        <v>252.2405999999999</v>
+        <v>158.8145454545454</v>
       </c>
       <c r="Q34" t="n">
-        <v>252.2405999999999</v>
+        <v>158.8145454545454</v>
       </c>
       <c r="R34" t="n">
-        <v>168.1604</v>
+        <v>105.8763636363636</v>
       </c>
       <c r="S34" t="n">
-        <v>252.2405999999999</v>
+        <v>158.8145454545454</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6511</v>
+        <v>6403</v>
       </c>
       <c r="B35" t="n">
-        <v>414.86</v>
+        <v>1868.36</v>
       </c>
       <c r="C35" t="n">
-        <v>1866.889999999999</v>
+        <v>8407.619999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>205.3579</v>
+        <v>924.8381999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>186.689</v>
+        <v>840.7619999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>168.0201</v>
+        <v>756.6858</v>
       </c>
       <c r="G35" t="n">
-        <v>149.3512</v>
+        <v>672.6096</v>
       </c>
       <c r="H35" t="n">
-        <v>130.6823</v>
+        <v>588.5334</v>
       </c>
       <c r="I35" t="n">
-        <v>149.3512</v>
+        <v>672.6096</v>
       </c>
       <c r="J35" t="n">
-        <v>130.6823</v>
+        <v>588.5334</v>
       </c>
       <c r="K35" t="n">
-        <v>112.0134</v>
+        <v>504.4571999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>93.34449999999998</v>
+        <v>420.381</v>
       </c>
       <c r="M35" t="n">
-        <v>186.689</v>
+        <v>840.7619999999999</v>
       </c>
       <c r="N35" t="n">
-        <v>74.67559999999999</v>
+        <v>336.3048</v>
       </c>
       <c r="O35" t="n">
-        <v>74.67559999999999</v>
+        <v>336.3048</v>
       </c>
       <c r="P35" t="n">
-        <v>56.00669999999999</v>
+        <v>252.2285999999999</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.00669999999999</v>
+        <v>252.2285999999999</v>
       </c>
       <c r="R35" t="n">
-        <v>37.33779999999999</v>
+        <v>168.1524</v>
       </c>
       <c r="S35" t="n">
-        <v>56.00669999999999</v>
+        <v>252.2285999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1207</v>
+        <v>6511</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>414.86</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
+        <v>1866.889999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>205.3579</v>
+      </c>
+      <c r="E36" t="n">
+        <v>186.689</v>
+      </c>
+      <c r="F36" t="n">
+        <v>168.0201</v>
+      </c>
+      <c r="G36" t="n">
+        <v>149.3512</v>
+      </c>
+      <c r="H36" t="n">
+        <v>130.6823</v>
+      </c>
+      <c r="I36" t="n">
+        <v>149.3512</v>
+      </c>
+      <c r="J36" t="n">
+        <v>130.6823</v>
+      </c>
+      <c r="K36" t="n">
+        <v>112.0134</v>
+      </c>
+      <c r="L36" t="n">
+        <v>93.34449999999998</v>
+      </c>
+      <c r="M36" t="n">
+        <v>186.689</v>
+      </c>
+      <c r="N36" t="n">
+        <v>74.67559999999999</v>
+      </c>
+      <c r="O36" t="n">
+        <v>74.67559999999999</v>
+      </c>
+      <c r="P36" t="n">
+        <v>56.00669999999999</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>56.00669999999999</v>
+      </c>
+      <c r="R36" t="n">
+        <v>37.33779999999999</v>
+      </c>
+      <c r="S36" t="n">
+        <v>56.00669999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1305</v>
-      </c>
-      <c r="B37" t="n">
-        <v>4.49</v>
-      </c>
+        <v>1207</v>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>20.19</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.999009900990099</v>
-      </c>
-      <c r="E37" t="n">
-        <v>1.799108910891089</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.799108910891089</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.599207920792079</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.399306930693069</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1.399306930693069</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.399306930693069</v>
-      </c>
-      <c r="K37" t="n">
-        <v>1.399306930693069</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1.199405940594059</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.999009900990099</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0.7996039603960395</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0.7996039603960395</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.5997029702970296</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.5997029702970296</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.5997029702970296</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0.7996039603960395</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1301</v>
-      </c>
-      <c r="B38" t="n">
-        <v>1001.25</v>
-      </c>
+        <v>1305</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>4505.629999999999</v>
-      </c>
-      <c r="D38" t="n">
-        <v>446.1019801980197</v>
-      </c>
-      <c r="E38" t="n">
-        <v>401.4917821782178</v>
-      </c>
-      <c r="F38" t="n">
-        <v>401.4917821782178</v>
-      </c>
-      <c r="G38" t="n">
-        <v>356.8815841584158</v>
-      </c>
-      <c r="H38" t="n">
-        <v>312.2713861386138</v>
-      </c>
-      <c r="I38" t="n">
-        <v>312.2713861386138</v>
-      </c>
-      <c r="J38" t="n">
-        <v>312.2713861386138</v>
-      </c>
-      <c r="K38" t="n">
-        <v>312.2713861386138</v>
-      </c>
-      <c r="L38" t="n">
-        <v>267.6611881188118</v>
-      </c>
-      <c r="M38" t="n">
-        <v>446.1019801980197</v>
-      </c>
-      <c r="N38" t="n">
-        <v>178.4407920792079</v>
-      </c>
-      <c r="O38" t="n">
-        <v>178.4407920792079</v>
-      </c>
-      <c r="P38" t="n">
-        <v>133.8305940594059</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>133.8305940594059</v>
-      </c>
-      <c r="R38" t="n">
-        <v>133.8305940594059</v>
-      </c>
-      <c r="S38" t="n">
-        <v>178.4407920792079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B39" t="n">
-        <v>775.04</v>
+        <v>1001.23</v>
       </c>
       <c r="C39" t="n">
-        <v>3487.669999999999</v>
+        <v>4505.549999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>345.3138613861385</v>
+        <v>446.0940594059405</v>
       </c>
       <c r="E39" t="n">
-        <v>310.7824752475247</v>
+        <v>401.4846534653465</v>
       </c>
       <c r="F39" t="n">
-        <v>310.7824752475247</v>
+        <v>401.4846534653465</v>
       </c>
       <c r="G39" t="n">
-        <v>276.2510891089108</v>
+        <v>356.8752475247524</v>
       </c>
       <c r="H39" t="n">
-        <v>241.719702970297</v>
+        <v>312.2658415841584</v>
       </c>
       <c r="I39" t="n">
-        <v>241.719702970297</v>
+        <v>312.2658415841584</v>
       </c>
       <c r="J39" t="n">
-        <v>241.719702970297</v>
+        <v>312.2658415841584</v>
       </c>
       <c r="K39" t="n">
-        <v>241.719702970297</v>
+        <v>312.2658415841584</v>
       </c>
       <c r="L39" t="n">
-        <v>207.1883168316831</v>
+        <v>267.6564356435643</v>
       </c>
       <c r="M39" t="n">
-        <v>345.3138613861385</v>
+        <v>446.0940594059405</v>
       </c>
       <c r="N39" t="n">
-        <v>138.1255445544554</v>
+        <v>178.4376237623762</v>
       </c>
       <c r="O39" t="n">
-        <v>138.1255445544554</v>
+        <v>178.4376237623762</v>
       </c>
       <c r="P39" t="n">
-        <v>103.5941584158416</v>
+        <v>133.8282178217821</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.5941584158416</v>
+        <v>133.8282178217821</v>
       </c>
       <c r="R39" t="n">
-        <v>103.5941584158416</v>
+        <v>133.8282178217821</v>
       </c>
       <c r="S39" t="n">
-        <v>138.1255445544554</v>
+        <v>178.4376237623762</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>208</v>
+        <v>1302</v>
       </c>
       <c r="B40" t="n">
-        <v>85</v>
+        <v>774.99</v>
       </c>
       <c r="C40" t="n">
-        <v>406.3399999999999</v>
+        <v>3487.469999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>36.57059999999999</v>
+        <v>345.2940594059405</v>
       </c>
       <c r="E40" t="n">
-        <v>32.50719999999999</v>
+        <v>310.7646534653464</v>
       </c>
       <c r="F40" t="n">
-        <v>28.4438</v>
+        <v>310.7646534653464</v>
       </c>
       <c r="G40" t="n">
-        <v>24.38039999999999</v>
+        <v>276.2352475247524</v>
       </c>
       <c r="H40" t="n">
-        <v>24.38039999999999</v>
+        <v>241.7058415841584</v>
       </c>
       <c r="I40" t="n">
-        <v>28.4438</v>
+        <v>241.7058415841584</v>
       </c>
       <c r="J40" t="n">
-        <v>24.38039999999999</v>
+        <v>241.7058415841584</v>
       </c>
       <c r="K40" t="n">
-        <v>24.38039999999999</v>
+        <v>241.7058415841584</v>
       </c>
       <c r="L40" t="n">
-        <v>28.4438</v>
+        <v>207.1764356435643</v>
       </c>
       <c r="M40" t="n">
-        <v>36.57059999999999</v>
+        <v>345.2940594059405</v>
       </c>
       <c r="N40" t="n">
-        <v>20.31699999999999</v>
+        <v>138.1176237623762</v>
       </c>
       <c r="O40" t="n">
-        <v>20.31699999999999</v>
+        <v>138.1176237623762</v>
       </c>
       <c r="P40" t="n">
-        <v>16.2536</v>
+        <v>103.5882178217821</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.2536</v>
+        <v>103.5882178217821</v>
       </c>
       <c r="R40" t="n">
-        <v>16.2536</v>
+        <v>103.5882178217821</v>
       </c>
       <c r="S40" t="n">
-        <v>28.4438</v>
+        <v>138.1176237623762</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" t="n">
-        <v>120</v>
+        <v>84.98999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>571.1099999999999</v>
+        <v>406.2799999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>51.39989999999999</v>
+        <v>36.56519999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>45.68879999999999</v>
+        <v>32.50239999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>39.9777</v>
+        <v>28.4396</v>
       </c>
       <c r="G41" t="n">
-        <v>34.26659999999999</v>
+        <v>24.37679999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>34.26659999999999</v>
+        <v>24.37679999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>39.9777</v>
+        <v>28.4396</v>
       </c>
       <c r="J41" t="n">
-        <v>34.26659999999999</v>
+        <v>24.37679999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>34.26659999999999</v>
+        <v>24.37679999999999</v>
       </c>
       <c r="L41" t="n">
-        <v>39.9777</v>
+        <v>28.4396</v>
       </c>
       <c r="M41" t="n">
-        <v>51.39989999999999</v>
+        <v>36.56519999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>28.55549999999999</v>
+        <v>20.31399999999999</v>
       </c>
       <c r="O41" t="n">
-        <v>28.55549999999999</v>
+        <v>20.31399999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>22.8444</v>
+        <v>16.2512</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.8444</v>
+        <v>16.2512</v>
       </c>
       <c r="R41" t="n">
-        <v>22.8444</v>
+        <v>16.2512</v>
       </c>
       <c r="S41" t="n">
-        <v>39.9777</v>
+        <v>28.4396</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2401</v>
+        <v>207</v>
       </c>
       <c r="B42" t="n">
-        <v>1935.82</v>
+        <v>119.97</v>
       </c>
       <c r="C42" t="n">
-        <v>9893.32</v>
+        <v>570.97</v>
       </c>
       <c r="D42" t="n">
-        <v>1175.44396039604</v>
+        <v>51.38729999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>1077.490297029703</v>
+        <v>45.6776</v>
       </c>
       <c r="F42" t="n">
-        <v>979.5366336633664</v>
+        <v>39.9679</v>
       </c>
       <c r="G42" t="n">
-        <v>783.629306930693</v>
+        <v>34.2582</v>
       </c>
       <c r="H42" t="n">
-        <v>783.629306930693</v>
+        <v>34.2582</v>
       </c>
       <c r="I42" t="n">
-        <v>783.629306930693</v>
+        <v>39.9679</v>
       </c>
       <c r="J42" t="n">
-        <v>685.6756435643565</v>
+        <v>34.2582</v>
       </c>
       <c r="K42" t="n">
-        <v>587.7219801980198</v>
+        <v>34.2582</v>
       </c>
       <c r="L42" t="n">
-        <v>391.8146534653465</v>
+        <v>39.9679</v>
       </c>
       <c r="M42" t="n">
-        <v>1175.44396039604</v>
+        <v>51.38729999999999</v>
       </c>
       <c r="N42" t="n">
-        <v>293.8609900990099</v>
+        <v>28.54849999999999</v>
       </c>
       <c r="O42" t="n">
-        <v>293.8609900990099</v>
+        <v>28.54849999999999</v>
       </c>
       <c r="P42" t="n">
-        <v>293.8609900990099</v>
+        <v>22.8388</v>
       </c>
       <c r="Q42" t="n">
-        <v>195.9073267326733</v>
+        <v>22.8388</v>
       </c>
       <c r="R42" t="n">
-        <v>195.9073267326733</v>
+        <v>22.8388</v>
       </c>
       <c r="S42" t="n">
-        <v>195.9073267326733</v>
+        <v>39.9679</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>203</v>
+        <v>2401</v>
       </c>
       <c r="B43" t="n">
-        <v>324.24</v>
+        <v>1935.7</v>
       </c>
       <c r="C43" t="n">
-        <v>1549.15</v>
+        <v>9892.779999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>139.4235</v>
+        <v>1175.379801980198</v>
       </c>
       <c r="E43" t="n">
-        <v>123.932</v>
+        <v>1077.431485148515</v>
       </c>
       <c r="F43" t="n">
-        <v>108.4405</v>
+        <v>979.4831683168318</v>
       </c>
       <c r="G43" t="n">
-        <v>92.94899999999998</v>
+        <v>783.5865346534654</v>
       </c>
       <c r="H43" t="n">
-        <v>92.94899999999998</v>
+        <v>783.5865346534654</v>
       </c>
       <c r="I43" t="n">
-        <v>108.4405</v>
+        <v>783.5865346534654</v>
       </c>
       <c r="J43" t="n">
-        <v>92.94899999999998</v>
+        <v>685.6382178217823</v>
       </c>
       <c r="K43" t="n">
-        <v>92.94899999999998</v>
+        <v>587.689900990099</v>
       </c>
       <c r="L43" t="n">
-        <v>108.4405</v>
+        <v>391.7932673267327</v>
       </c>
       <c r="M43" t="n">
-        <v>139.4235</v>
+        <v>1175.379801980198</v>
       </c>
       <c r="N43" t="n">
-        <v>77.45749999999998</v>
+        <v>293.8449504950495</v>
       </c>
       <c r="O43" t="n">
-        <v>77.45749999999998</v>
+        <v>293.8449504950495</v>
       </c>
       <c r="P43" t="n">
-        <v>61.96599999999999</v>
+        <v>293.8449504950495</v>
       </c>
       <c r="Q43" t="n">
-        <v>61.96599999999999</v>
+        <v>195.8966336633663</v>
       </c>
       <c r="R43" t="n">
-        <v>61.96599999999999</v>
+        <v>195.8966336633663</v>
       </c>
       <c r="S43" t="n">
-        <v>108.4405</v>
+        <v>195.8966336633663</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B44" t="n">
-        <v>379.92</v>
+        <v>324.18</v>
       </c>
       <c r="C44" t="n">
-        <v>1818.119999999999</v>
+        <v>1548.89</v>
       </c>
       <c r="D44" t="n">
-        <v>163.6308</v>
+        <v>139.4001</v>
       </c>
       <c r="E44" t="n">
-        <v>145.4496</v>
+        <v>123.9112</v>
       </c>
       <c r="F44" t="n">
-        <v>127.2684</v>
+        <v>108.4223</v>
       </c>
       <c r="G44" t="n">
-        <v>109.0872</v>
+        <v>92.93339999999998</v>
       </c>
       <c r="H44" t="n">
-        <v>109.0872</v>
+        <v>92.93339999999998</v>
       </c>
       <c r="I44" t="n">
-        <v>127.2684</v>
+        <v>108.4223</v>
       </c>
       <c r="J44" t="n">
-        <v>109.0872</v>
+        <v>92.93339999999998</v>
       </c>
       <c r="K44" t="n">
-        <v>109.0872</v>
+        <v>92.93339999999998</v>
       </c>
       <c r="L44" t="n">
-        <v>127.2684</v>
+        <v>108.4223</v>
       </c>
       <c r="M44" t="n">
-        <v>163.6308</v>
+        <v>139.4001</v>
       </c>
       <c r="N44" t="n">
-        <v>90.90599999999998</v>
+        <v>77.44449999999999</v>
       </c>
       <c r="O44" t="n">
-        <v>90.90599999999998</v>
+        <v>77.44449999999999</v>
       </c>
       <c r="P44" t="n">
-        <v>72.72479999999999</v>
+        <v>61.9556</v>
       </c>
       <c r="Q44" t="n">
-        <v>72.72479999999999</v>
+        <v>61.9556</v>
       </c>
       <c r="R44" t="n">
-        <v>72.72479999999999</v>
+        <v>61.9556</v>
       </c>
       <c r="S44" t="n">
-        <v>127.2684</v>
+        <v>108.4223</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6609</v>
+        <v>204</v>
       </c>
       <c r="B45" t="n">
-        <v>1666.5</v>
+        <v>379.86</v>
       </c>
       <c r="C45" t="n">
-        <v>7035.299999999998</v>
+        <v>1817.86</v>
       </c>
       <c r="D45" t="n">
-        <v>781.6999999999998</v>
+        <v>163.6074</v>
       </c>
       <c r="E45" t="n">
-        <v>710.6363636363634</v>
+        <v>145.4288</v>
       </c>
       <c r="F45" t="n">
-        <v>639.572727272727</v>
+        <v>127.2502</v>
       </c>
       <c r="G45" t="n">
-        <v>568.5090909090908</v>
+        <v>109.0716</v>
       </c>
       <c r="H45" t="n">
-        <v>497.4454545454544</v>
+        <v>109.0716</v>
       </c>
       <c r="I45" t="n">
-        <v>497.4454545454544</v>
+        <v>127.2502</v>
       </c>
       <c r="J45" t="n">
-        <v>497.4454545454544</v>
+        <v>109.0716</v>
       </c>
       <c r="K45" t="n">
-        <v>426.3818181818181</v>
+        <v>109.0716</v>
       </c>
       <c r="L45" t="n">
-        <v>355.3181818181817</v>
+        <v>127.2502</v>
       </c>
       <c r="M45" t="n">
-        <v>710.6363636363634</v>
+        <v>163.6074</v>
       </c>
       <c r="N45" t="n">
-        <v>284.2545454545454</v>
+        <v>90.89299999999997</v>
       </c>
       <c r="O45" t="n">
-        <v>284.2545454545454</v>
+        <v>90.89299999999997</v>
       </c>
       <c r="P45" t="n">
-        <v>213.190909090909</v>
+        <v>72.71439999999998</v>
       </c>
       <c r="Q45" t="n">
-        <v>213.190909090909</v>
+        <v>72.71439999999998</v>
       </c>
       <c r="R45" t="n">
-        <v>142.1272727272727</v>
+        <v>72.71439999999998</v>
       </c>
       <c r="S45" t="n">
-        <v>213.190909090909</v>
+        <v>127.2502</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6601</v>
+        <v>6609</v>
       </c>
       <c r="B46" t="n">
-        <v>1095.57</v>
+        <v>1666.46</v>
       </c>
       <c r="C46" t="n">
-        <v>4569.499999999999</v>
+        <v>7035.089999999997</v>
       </c>
       <c r="D46" t="n">
-        <v>507.7222222222221</v>
+        <v>781.6766666666664</v>
       </c>
       <c r="E46" t="n">
-        <v>461.5656565656564</v>
+        <v>710.6151515151513</v>
       </c>
       <c r="F46" t="n">
-        <v>415.4090909090907</v>
+        <v>639.5536363636361</v>
       </c>
       <c r="G46" t="n">
-        <v>369.2525252525252</v>
+        <v>568.4921212121211</v>
       </c>
       <c r="H46" t="n">
-        <v>323.0959595959595</v>
+        <v>497.430606060606</v>
       </c>
       <c r="I46" t="n">
-        <v>323.0959595959595</v>
+        <v>497.430606060606</v>
       </c>
       <c r="J46" t="n">
-        <v>323.0959595959595</v>
+        <v>497.430606060606</v>
       </c>
       <c r="K46" t="n">
-        <v>276.9393939393938</v>
+        <v>426.3690909090908</v>
       </c>
       <c r="L46" t="n">
-        <v>230.7828282828282</v>
+        <v>355.3075757575756</v>
       </c>
       <c r="M46" t="n">
-        <v>461.5656565656564</v>
+        <v>710.6151515151513</v>
       </c>
       <c r="N46" t="n">
-        <v>184.6262626262626</v>
+        <v>284.2460606060606</v>
       </c>
       <c r="O46" t="n">
-        <v>184.6262626262626</v>
+        <v>284.2460606060606</v>
       </c>
       <c r="P46" t="n">
-        <v>138.4696969696969</v>
+        <v>213.1845454545454</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.4696969696969</v>
+        <v>213.1845454545454</v>
       </c>
       <c r="R46" t="n">
-        <v>92.31313131313129</v>
+        <v>142.1230303030303</v>
       </c>
       <c r="S46" t="n">
-        <v>138.4696969696969</v>
+        <v>213.1845454545454</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6506</v>
+        <v>6601</v>
       </c>
       <c r="B47" t="n">
-        <v>1461.9</v>
+        <v>1095.57</v>
       </c>
       <c r="C47" t="n">
-        <v>6578.559999999999</v>
+        <v>4569.499999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>723.6415999999998</v>
+        <v>507.7222222222221</v>
       </c>
       <c r="E47" t="n">
-        <v>657.8559999999999</v>
+        <v>461.5656565656564</v>
       </c>
       <c r="F47" t="n">
-        <v>592.0703999999999</v>
+        <v>415.4090909090907</v>
       </c>
       <c r="G47" t="n">
-        <v>526.2847999999999</v>
+        <v>369.2525252525252</v>
       </c>
       <c r="H47" t="n">
-        <v>460.4992</v>
+        <v>323.0959595959595</v>
       </c>
       <c r="I47" t="n">
-        <v>526.2847999999999</v>
+        <v>323.0959595959595</v>
       </c>
       <c r="J47" t="n">
-        <v>460.4992</v>
+        <v>323.0959595959595</v>
       </c>
       <c r="K47" t="n">
-        <v>394.7135999999999</v>
+        <v>276.9393939393938</v>
       </c>
       <c r="L47" t="n">
-        <v>328.9279999999999</v>
+        <v>230.7828282828282</v>
       </c>
       <c r="M47" t="n">
-        <v>657.8559999999999</v>
+        <v>461.5656565656564</v>
       </c>
       <c r="N47" t="n">
-        <v>263.1424</v>
+        <v>184.6262626262626</v>
       </c>
       <c r="O47" t="n">
-        <v>263.1424</v>
+        <v>184.6262626262626</v>
       </c>
       <c r="P47" t="n">
-        <v>197.3568</v>
+        <v>138.4696969696969</v>
       </c>
       <c r="Q47" t="n">
-        <v>197.3568</v>
+        <v>138.4696969696969</v>
       </c>
       <c r="R47" t="n">
-        <v>131.5712</v>
+        <v>92.31313131313129</v>
       </c>
       <c r="S47" t="n">
-        <v>197.3568</v>
+        <v>138.4696969696969</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6801</v>
+        <v>6506</v>
       </c>
       <c r="B48" t="n">
-        <v>8236.82</v>
+        <v>1461.84</v>
       </c>
       <c r="C48" t="n">
-        <v>42371.79</v>
+        <v>6578.289999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>5034.272079207921</v>
+        <v>723.6118999999998</v>
       </c>
       <c r="E48" t="n">
-        <v>4195.226732673267</v>
+        <v>657.8289999999998</v>
       </c>
       <c r="F48" t="n">
-        <v>3775.70405940594</v>
+        <v>592.0460999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>3775.70405940594</v>
+        <v>526.2631999999999</v>
       </c>
       <c r="H48" t="n">
-        <v>3775.70405940594</v>
+        <v>460.4802999999999</v>
       </c>
       <c r="I48" t="n">
-        <v>3356.181386138614</v>
+        <v>526.2631999999999</v>
       </c>
       <c r="J48" t="n">
-        <v>2517.13603960396</v>
+        <v>460.4802999999999</v>
       </c>
       <c r="K48" t="n">
-        <v>2097.613366336634</v>
+        <v>394.6973999999999</v>
       </c>
       <c r="L48" t="n">
-        <v>1678.090693069307</v>
+        <v>328.9144999999999</v>
       </c>
       <c r="M48" t="n">
-        <v>4614.749405940594</v>
+        <v>657.8289999999998</v>
       </c>
       <c r="N48" t="n">
-        <v>1678.090693069307</v>
+        <v>263.1315999999999</v>
       </c>
       <c r="O48" t="n">
-        <v>1678.090693069307</v>
+        <v>263.1315999999999</v>
       </c>
       <c r="P48" t="n">
-        <v>1258.56801980198</v>
+        <v>197.3487</v>
       </c>
       <c r="Q48" t="n">
-        <v>1258.56801980198</v>
+        <v>197.3487</v>
       </c>
       <c r="R48" t="n">
-        <v>839.0453465346535</v>
+        <v>131.5658</v>
       </c>
       <c r="S48" t="n">
-        <v>839.0453465346535</v>
+        <v>197.3487</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1101</v>
+        <v>6801</v>
       </c>
       <c r="B49" t="n">
-        <v>2293.45</v>
+        <v>8236.559999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>9471.9</v>
+        <v>42370.63</v>
       </c>
       <c r="D49" t="n">
-        <v>1136.628</v>
+        <v>5034.134257425742</v>
       </c>
       <c r="E49" t="n">
-        <v>1041.909</v>
+        <v>4195.111881188119</v>
       </c>
       <c r="F49" t="n">
-        <v>852.4709999999999</v>
+        <v>3775.600693069307</v>
       </c>
       <c r="G49" t="n">
-        <v>757.752</v>
+        <v>3775.600693069307</v>
       </c>
       <c r="H49" t="n">
-        <v>757.752</v>
+        <v>3775.600693069307</v>
       </c>
       <c r="I49" t="n">
-        <v>757.752</v>
+        <v>3356.089504950495</v>
       </c>
       <c r="J49" t="n">
-        <v>663.033</v>
+        <v>2517.067128712871</v>
       </c>
       <c r="K49" t="n">
-        <v>568.314</v>
+        <v>2097.555940594059</v>
       </c>
       <c r="L49" t="n">
-        <v>378.876</v>
+        <v>1678.044752475247</v>
       </c>
       <c r="M49" t="n">
-        <v>1136.628</v>
+        <v>4614.62306930693</v>
       </c>
       <c r="N49" t="n">
-        <v>284.157</v>
+        <v>1678.044752475247</v>
       </c>
       <c r="O49" t="n">
-        <v>284.157</v>
+        <v>1678.044752475247</v>
       </c>
       <c r="P49" t="n">
-        <v>284.157</v>
+        <v>1258.533564356436</v>
       </c>
       <c r="Q49" t="n">
-        <v>189.438</v>
+        <v>1258.533564356436</v>
       </c>
       <c r="R49" t="n">
-        <v>189.438</v>
+        <v>839.0223762376237</v>
       </c>
       <c r="S49" t="n">
-        <v>189.438</v>
+        <v>839.0223762376237</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1104</v>
-      </c>
-      <c r="B50" t="n">
-        <v>1518.01</v>
-      </c>
+        <v>6608</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>6221.07</v>
-      </c>
-      <c r="D50" t="n">
-        <v>746.5283999999999</v>
-      </c>
-      <c r="E50" t="n">
-        <v>684.3176999999999</v>
-      </c>
-      <c r="F50" t="n">
-        <v>559.8963</v>
-      </c>
-      <c r="G50" t="n">
-        <v>497.6856</v>
-      </c>
-      <c r="H50" t="n">
-        <v>497.6856</v>
-      </c>
-      <c r="I50" t="n">
-        <v>497.6856</v>
-      </c>
-      <c r="J50" t="n">
-        <v>435.4749</v>
-      </c>
-      <c r="K50" t="n">
-        <v>373.2642</v>
-      </c>
-      <c r="L50" t="n">
-        <v>248.8428</v>
-      </c>
-      <c r="M50" t="n">
-        <v>746.5283999999999</v>
-      </c>
-      <c r="N50" t="n">
-        <v>186.6321</v>
-      </c>
-      <c r="O50" t="n">
-        <v>186.6321</v>
-      </c>
-      <c r="P50" t="n">
-        <v>186.6321</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>124.4214</v>
-      </c>
-      <c r="R50" t="n">
-        <v>124.4214</v>
-      </c>
-      <c r="S50" t="n">
-        <v>124.4214</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B51" t="n">
-        <v>1275.2</v>
+        <v>2293.45</v>
       </c>
       <c r="C51" t="n">
-        <v>5289.61</v>
+        <v>9471.9</v>
       </c>
       <c r="D51" t="n">
-        <v>634.7532</v>
+        <v>1136.628</v>
       </c>
       <c r="E51" t="n">
-        <v>581.8570999999999</v>
+        <v>1041.909</v>
       </c>
       <c r="F51" t="n">
-        <v>476.0649</v>
+        <v>852.4709999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>423.1688</v>
+        <v>757.752</v>
       </c>
       <c r="H51" t="n">
-        <v>423.1688</v>
+        <v>757.752</v>
       </c>
       <c r="I51" t="n">
-        <v>423.1688</v>
+        <v>757.752</v>
       </c>
       <c r="J51" t="n">
-        <v>370.2727</v>
+        <v>663.033</v>
       </c>
       <c r="K51" t="n">
-        <v>317.3766</v>
+        <v>568.314</v>
       </c>
       <c r="L51" t="n">
-        <v>211.5844</v>
+        <v>378.876</v>
       </c>
       <c r="M51" t="n">
-        <v>634.7532</v>
+        <v>1136.628</v>
       </c>
       <c r="N51" t="n">
-        <v>158.6883</v>
+        <v>284.157</v>
       </c>
       <c r="O51" t="n">
-        <v>158.6883</v>
+        <v>284.157</v>
       </c>
       <c r="P51" t="n">
-        <v>158.6883</v>
+        <v>284.157</v>
       </c>
       <c r="Q51" t="n">
-        <v>105.7922</v>
+        <v>189.438</v>
       </c>
       <c r="R51" t="n">
-        <v>105.7922</v>
+        <v>189.438</v>
       </c>
       <c r="S51" t="n">
-        <v>105.7922</v>
+        <v>189.438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="B52" t="n">
-        <v>959.98</v>
+        <v>1518.01</v>
       </c>
       <c r="C52" t="n">
-        <v>3991.190000000001</v>
+        <v>6221.07</v>
       </c>
       <c r="D52" t="n">
-        <v>478.9428</v>
+        <v>746.5283999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>439.0309</v>
+        <v>684.3176999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>359.2071</v>
+        <v>559.8963</v>
       </c>
       <c r="G52" t="n">
-        <v>319.2952</v>
+        <v>497.6856</v>
       </c>
       <c r="H52" t="n">
-        <v>319.2952</v>
+        <v>497.6856</v>
       </c>
       <c r="I52" t="n">
-        <v>319.2952</v>
+        <v>497.6856</v>
       </c>
       <c r="J52" t="n">
-        <v>279.3833</v>
+        <v>435.4749</v>
       </c>
       <c r="K52" t="n">
-        <v>239.4714</v>
+        <v>373.2642</v>
       </c>
       <c r="L52" t="n">
-        <v>159.6476</v>
+        <v>248.8428</v>
       </c>
       <c r="M52" t="n">
-        <v>478.9428</v>
+        <v>746.5283999999999</v>
       </c>
       <c r="N52" t="n">
-        <v>119.7357</v>
+        <v>186.6321</v>
       </c>
       <c r="O52" t="n">
-        <v>119.7357</v>
+        <v>186.6321</v>
       </c>
       <c r="P52" t="n">
-        <v>119.7357</v>
+        <v>186.6321</v>
       </c>
       <c r="Q52" t="n">
-        <v>79.82380000000001</v>
+        <v>124.4214</v>
       </c>
       <c r="R52" t="n">
-        <v>79.82380000000001</v>
+        <v>124.4214</v>
       </c>
       <c r="S52" t="n">
-        <v>79.82380000000001</v>
+        <v>124.4214</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1202</v>
+        <v>1103</v>
       </c>
       <c r="B53" t="n">
-        <v>922.04</v>
+        <v>1275.19</v>
       </c>
       <c r="C53" t="n">
-        <v>3846.739999999999</v>
+        <v>5289.54</v>
       </c>
       <c r="D53" t="n">
-        <v>414.8445098039215</v>
+        <v>634.7447999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>377.1313725490195</v>
+        <v>581.8493999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>339.4182352941176</v>
+        <v>476.0586</v>
       </c>
       <c r="G53" t="n">
-        <v>301.7050980392156</v>
+        <v>423.1632</v>
       </c>
       <c r="H53" t="n">
-        <v>301.7050980392156</v>
+        <v>423.1632</v>
       </c>
       <c r="I53" t="n">
-        <v>301.7050980392156</v>
+        <v>423.1632</v>
       </c>
       <c r="J53" t="n">
-        <v>263.9919607843137</v>
+        <v>370.2678</v>
       </c>
       <c r="K53" t="n">
-        <v>226.2788235294117</v>
+        <v>317.3724</v>
       </c>
       <c r="L53" t="n">
-        <v>150.8525490196078</v>
+        <v>211.5816</v>
       </c>
       <c r="M53" t="n">
-        <v>414.8445098039215</v>
+        <v>634.7447999999999</v>
       </c>
       <c r="N53" t="n">
-        <v>150.8525490196078</v>
+        <v>158.6862</v>
       </c>
       <c r="O53" t="n">
-        <v>150.8525490196078</v>
+        <v>158.6862</v>
       </c>
       <c r="P53" t="n">
-        <v>150.8525490196078</v>
+        <v>158.6862</v>
       </c>
       <c r="Q53" t="n">
-        <v>113.1394117647058</v>
+        <v>105.7908</v>
       </c>
       <c r="R53" t="n">
-        <v>75.4262745098039</v>
+        <v>105.7908</v>
       </c>
       <c r="S53" t="n">
-        <v>113.1394117647058</v>
+        <v>105.7908</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1203</v>
+        <v>1102</v>
       </c>
       <c r="B54" t="n">
-        <v>709.54</v>
+        <v>959.9299999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>2959.75</v>
+        <v>3990.99</v>
       </c>
       <c r="D54" t="n">
-        <v>319.188725490196</v>
+        <v>478.9188</v>
       </c>
       <c r="E54" t="n">
-        <v>290.1715686274509</v>
+        <v>439.0089</v>
       </c>
       <c r="F54" t="n">
-        <v>261.1544117647058</v>
+        <v>359.1890999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>232.1372549019607</v>
+        <v>319.2792</v>
       </c>
       <c r="H54" t="n">
-        <v>232.1372549019607</v>
+        <v>319.2792</v>
       </c>
       <c r="I54" t="n">
-        <v>232.1372549019607</v>
+        <v>319.2792</v>
       </c>
       <c r="J54" t="n">
-        <v>203.1200980392157</v>
+        <v>279.3693</v>
       </c>
       <c r="K54" t="n">
-        <v>174.1029411764706</v>
+        <v>239.4594</v>
       </c>
       <c r="L54" t="n">
-        <v>116.0686274509804</v>
+        <v>159.6396</v>
       </c>
       <c r="M54" t="n">
-        <v>319.188725490196</v>
+        <v>478.9188</v>
       </c>
       <c r="N54" t="n">
-        <v>116.0686274509804</v>
+        <v>119.7297</v>
       </c>
       <c r="O54" t="n">
-        <v>116.0686274509804</v>
+        <v>119.7297</v>
       </c>
       <c r="P54" t="n">
-        <v>116.0686274509804</v>
+        <v>119.7297</v>
       </c>
       <c r="Q54" t="n">
-        <v>87.05147058823528</v>
+        <v>79.8198</v>
       </c>
       <c r="R54" t="n">
-        <v>58.03431372549019</v>
+        <v>79.8198</v>
       </c>
       <c r="S54" t="n">
-        <v>87.05147058823528</v>
+        <v>79.8198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2202</v>
+        <v>1202</v>
       </c>
       <c r="B55" t="n">
-        <v>2071.41</v>
+        <v>921.99</v>
       </c>
       <c r="C55" t="n">
-        <v>8570.279999999999</v>
+        <v>3846.519999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>933.3968316831681</v>
+        <v>414.8207843137254</v>
       </c>
       <c r="E55" t="n">
-        <v>848.5425742574256</v>
+        <v>377.1098039215686</v>
       </c>
       <c r="F55" t="n">
-        <v>763.6883168316831</v>
+        <v>339.3988235294117</v>
       </c>
       <c r="G55" t="n">
-        <v>678.8340594059405</v>
+        <v>301.6878431372548</v>
       </c>
       <c r="H55" t="n">
-        <v>678.8340594059405</v>
+        <v>301.6878431372548</v>
       </c>
       <c r="I55" t="n">
-        <v>678.8340594059405</v>
+        <v>301.6878431372548</v>
       </c>
       <c r="J55" t="n">
-        <v>593.979801980198</v>
+        <v>263.976862745098</v>
       </c>
       <c r="K55" t="n">
-        <v>509.1255445544554</v>
+        <v>226.2658823529411</v>
       </c>
       <c r="L55" t="n">
-        <v>424.2712871287128</v>
+        <v>150.8439215686274</v>
       </c>
       <c r="M55" t="n">
-        <v>933.3968316831681</v>
+        <v>414.8207843137254</v>
       </c>
       <c r="N55" t="n">
-        <v>339.4170297029702</v>
+        <v>150.8439215686274</v>
       </c>
       <c r="O55" t="n">
-        <v>339.4170297029702</v>
+        <v>150.8439215686274</v>
       </c>
       <c r="P55" t="n">
-        <v>254.5627722772277</v>
+        <v>150.8439215686274</v>
       </c>
       <c r="Q55" t="n">
-        <v>169.7085148514851</v>
+        <v>113.1329411764706</v>
       </c>
       <c r="R55" t="n">
-        <v>169.7085148514851</v>
+        <v>75.42196078431371</v>
       </c>
       <c r="S55" t="n">
-        <v>254.5627722772277</v>
+        <v>113.1329411764706</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2201</v>
+        <v>1203</v>
       </c>
       <c r="B56" t="n">
-        <v>1857.58</v>
+        <v>709.5</v>
       </c>
       <c r="C56" t="n">
-        <v>7546.939999999999</v>
+        <v>2959.59</v>
       </c>
       <c r="D56" t="n">
-        <v>821.9439603960393</v>
+        <v>319.1714705882353</v>
       </c>
       <c r="E56" t="n">
-        <v>747.2217821782176</v>
+        <v>290.1558823529411</v>
       </c>
       <c r="F56" t="n">
-        <v>672.4996039603959</v>
+        <v>261.140294117647</v>
       </c>
       <c r="G56" t="n">
-        <v>597.7774257425741</v>
+        <v>232.1247058823529</v>
       </c>
       <c r="H56" t="n">
-        <v>597.7774257425741</v>
+        <v>232.1247058823529</v>
       </c>
       <c r="I56" t="n">
-        <v>597.7774257425741</v>
+        <v>232.1247058823529</v>
       </c>
       <c r="J56" t="n">
-        <v>523.0552475247524</v>
+        <v>203.1091176470588</v>
       </c>
       <c r="K56" t="n">
-        <v>448.3330693069306</v>
+        <v>174.0935294117647</v>
       </c>
       <c r="L56" t="n">
-        <v>373.6108910891088</v>
+        <v>116.0623529411765</v>
       </c>
       <c r="M56" t="n">
-        <v>821.9439603960393</v>
+        <v>319.1714705882353</v>
       </c>
       <c r="N56" t="n">
-        <v>298.8887128712871</v>
+        <v>116.0623529411765</v>
       </c>
       <c r="O56" t="n">
-        <v>298.8887128712871</v>
+        <v>116.0623529411765</v>
       </c>
       <c r="P56" t="n">
-        <v>224.1665346534653</v>
+        <v>116.0623529411765</v>
       </c>
       <c r="Q56" t="n">
-        <v>149.4443564356435</v>
+        <v>87.04676470588234</v>
       </c>
       <c r="R56" t="n">
-        <v>149.4443564356435</v>
+        <v>58.03117647058823</v>
       </c>
       <c r="S56" t="n">
-        <v>224.1665346534653</v>
+        <v>87.04676470588234</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2302</v>
+        <v>2202</v>
       </c>
       <c r="B57" t="n">
-        <v>1285.93</v>
+        <v>2071.36</v>
       </c>
       <c r="C57" t="n">
-        <v>5471.729999999998</v>
+        <v>8570.049999999997</v>
       </c>
       <c r="D57" t="n">
-        <v>601.8902999999998</v>
+        <v>933.3717821782175</v>
       </c>
       <c r="E57" t="n">
-        <v>547.1729999999999</v>
+        <v>848.5198019801977</v>
       </c>
       <c r="F57" t="n">
-        <v>492.4556999999999</v>
+        <v>763.667821782178</v>
       </c>
       <c r="G57" t="n">
-        <v>437.7383999999999</v>
+        <v>678.8158415841582</v>
       </c>
       <c r="H57" t="n">
-        <v>437.7383999999999</v>
+        <v>678.8158415841582</v>
       </c>
       <c r="I57" t="n">
-        <v>437.7383999999999</v>
+        <v>678.8158415841582</v>
       </c>
       <c r="J57" t="n">
-        <v>383.0210999999999</v>
+        <v>593.9638613861385</v>
       </c>
       <c r="K57" t="n">
-        <v>328.3037999999999</v>
+        <v>509.1118811881186</v>
       </c>
       <c r="L57" t="n">
-        <v>218.8691999999999</v>
+        <v>424.2599009900989</v>
       </c>
       <c r="M57" t="n">
-        <v>601.8902999999998</v>
+        <v>933.3717821782175</v>
       </c>
       <c r="N57" t="n">
-        <v>218.8691999999999</v>
+        <v>339.4079207920791</v>
       </c>
       <c r="O57" t="n">
-        <v>218.8691999999999</v>
+        <v>339.4079207920791</v>
       </c>
       <c r="P57" t="n">
-        <v>164.1519</v>
+        <v>254.5559405940593</v>
       </c>
       <c r="Q57" t="n">
-        <v>164.1519</v>
+        <v>169.7039603960395</v>
       </c>
       <c r="R57" t="n">
-        <v>109.4346</v>
+        <v>169.7039603960395</v>
       </c>
       <c r="S57" t="n">
-        <v>109.4346</v>
+        <v>254.5559405940593</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="B58" t="n">
-        <v>1893.34</v>
+        <v>1857.58</v>
       </c>
       <c r="C58" t="n">
-        <v>7945.009999999999</v>
+        <v>7546.939999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>873.9510999999998</v>
+        <v>821.9439603960393</v>
       </c>
       <c r="E58" t="n">
-        <v>794.5009999999999</v>
+        <v>747.2217821782176</v>
       </c>
       <c r="F58" t="n">
-        <v>715.0508999999998</v>
+        <v>672.4996039603959</v>
       </c>
       <c r="G58" t="n">
-        <v>635.6007999999999</v>
+        <v>597.7774257425741</v>
       </c>
       <c r="H58" t="n">
-        <v>635.6007999999999</v>
+        <v>597.7774257425741</v>
       </c>
       <c r="I58" t="n">
-        <v>635.6007999999999</v>
+        <v>597.7774257425741</v>
       </c>
       <c r="J58" t="n">
-        <v>556.1506999999999</v>
+        <v>523.0552475247524</v>
       </c>
       <c r="K58" t="n">
-        <v>476.7005999999999</v>
+        <v>448.3330693069306</v>
       </c>
       <c r="L58" t="n">
-        <v>317.8004</v>
+        <v>373.6108910891088</v>
       </c>
       <c r="M58" t="n">
-        <v>873.9510999999998</v>
+        <v>821.9439603960393</v>
       </c>
       <c r="N58" t="n">
-        <v>317.8004</v>
+        <v>298.8887128712871</v>
       </c>
       <c r="O58" t="n">
-        <v>317.8004</v>
+        <v>298.8887128712871</v>
       </c>
       <c r="P58" t="n">
-        <v>238.3502999999999</v>
+        <v>224.1665346534653</v>
       </c>
       <c r="Q58" t="n">
-        <v>238.3502999999999</v>
+        <v>149.4443564356435</v>
       </c>
       <c r="R58" t="n">
-        <v>158.9002</v>
+        <v>149.4443564356435</v>
       </c>
       <c r="S58" t="n">
-        <v>158.9002</v>
+        <v>224.1665346534653</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2102</v>
+        <v>2302</v>
       </c>
       <c r="B59" t="n">
-        <v>1992.76</v>
+        <v>1285.68</v>
       </c>
       <c r="C59" t="n">
-        <v>8967.439999999999</v>
+        <v>5470.589999999998</v>
       </c>
       <c r="D59" t="n">
-        <v>967.0768627450979</v>
+        <v>601.7648999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>879.1607843137255</v>
+        <v>547.0589999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>791.2447058823528</v>
+        <v>492.3530999999999</v>
       </c>
       <c r="G59" t="n">
-        <v>703.3286274509803</v>
+        <v>437.6471999999999</v>
       </c>
       <c r="H59" t="n">
-        <v>703.3286274509803</v>
+        <v>437.6471999999999</v>
       </c>
       <c r="I59" t="n">
-        <v>703.3286274509803</v>
+        <v>437.6471999999999</v>
       </c>
       <c r="J59" t="n">
-        <v>615.4125490196078</v>
+        <v>382.9413</v>
       </c>
       <c r="K59" t="n">
-        <v>527.4964705882352</v>
+        <v>328.2353999999999</v>
       </c>
       <c r="L59" t="n">
-        <v>439.5803921568627</v>
+        <v>218.8236</v>
       </c>
       <c r="M59" t="n">
-        <v>967.0768627450979</v>
+        <v>601.7648999999999</v>
       </c>
       <c r="N59" t="n">
-        <v>351.6643137254902</v>
+        <v>218.8236</v>
       </c>
       <c r="O59" t="n">
-        <v>351.6643137254902</v>
+        <v>218.8236</v>
       </c>
       <c r="P59" t="n">
-        <v>263.7482352941176</v>
+        <v>164.1177</v>
       </c>
       <c r="Q59" t="n">
-        <v>263.7482352941176</v>
+        <v>164.1177</v>
       </c>
       <c r="R59" t="n">
-        <v>175.8321568627451</v>
+        <v>109.4118</v>
       </c>
       <c r="S59" t="n">
-        <v>263.7482352941176</v>
+        <v>109.4118</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2103</v>
+        <v>2301</v>
       </c>
       <c r="B60" t="n">
-        <v>1493.88</v>
+        <v>1893.34</v>
       </c>
       <c r="C60" t="n">
-        <v>6671.849999999999</v>
+        <v>7945.009999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>719.5132352941175</v>
+        <v>873.9510999999998</v>
       </c>
       <c r="E60" t="n">
-        <v>654.1029411764705</v>
+        <v>794.5009999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>588.6926470588235</v>
+        <v>715.0508999999998</v>
       </c>
       <c r="G60" t="n">
-        <v>523.2823529411764</v>
+        <v>635.6007999999999</v>
       </c>
       <c r="H60" t="n">
-        <v>523.2823529411764</v>
+        <v>635.6007999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>523.2823529411764</v>
+        <v>635.6007999999999</v>
       </c>
       <c r="J60" t="n">
-        <v>457.8720588235294</v>
+        <v>556.1506999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>392.4617647058823</v>
+        <v>476.7005999999999</v>
       </c>
       <c r="L60" t="n">
-        <v>327.0514705882352</v>
+        <v>317.8004</v>
       </c>
       <c r="M60" t="n">
-        <v>719.5132352941175</v>
+        <v>873.9510999999998</v>
       </c>
       <c r="N60" t="n">
-        <v>261.6411764705882</v>
+        <v>317.8004</v>
       </c>
       <c r="O60" t="n">
-        <v>261.6411764705882</v>
+        <v>317.8004</v>
       </c>
       <c r="P60" t="n">
-        <v>196.2308823529411</v>
+        <v>238.3502999999999</v>
       </c>
       <c r="Q60" t="n">
-        <v>196.2308823529411</v>
+        <v>238.3502999999999</v>
       </c>
       <c r="R60" t="n">
-        <v>130.8205882352941</v>
+        <v>158.9002</v>
       </c>
       <c r="S60" t="n">
-        <v>196.2308823529411</v>
+        <v>158.9002</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1204</v>
+        <v>2102</v>
       </c>
       <c r="B61" t="n">
-        <v>1670.21</v>
+        <v>1992.74</v>
       </c>
       <c r="C61" t="n">
-        <v>6961.669999999998</v>
+        <v>8967.309999999998</v>
       </c>
       <c r="D61" t="n">
-        <v>750.7683333333332</v>
+        <v>967.0628431372546</v>
       </c>
       <c r="E61" t="n">
-        <v>682.5166666666665</v>
+        <v>879.1480392156861</v>
       </c>
       <c r="F61" t="n">
-        <v>614.2649999999999</v>
+        <v>791.2332352941174</v>
       </c>
       <c r="G61" t="n">
-        <v>546.0133333333332</v>
+        <v>703.3184313725488</v>
       </c>
       <c r="H61" t="n">
-        <v>546.0133333333332</v>
+        <v>703.3184313725488</v>
       </c>
       <c r="I61" t="n">
-        <v>546.0133333333332</v>
+        <v>703.3184313725488</v>
       </c>
       <c r="J61" t="n">
-        <v>477.7616666666666</v>
+        <v>615.4036274509803</v>
       </c>
       <c r="K61" t="n">
-        <v>409.5099999999999</v>
+        <v>527.4888235294115</v>
       </c>
       <c r="L61" t="n">
-        <v>273.0066666666666</v>
+        <v>439.5740196078431</v>
       </c>
       <c r="M61" t="n">
-        <v>750.7683333333332</v>
+        <v>967.0628431372546</v>
       </c>
       <c r="N61" t="n">
-        <v>273.0066666666666</v>
+        <v>351.6592156862744</v>
       </c>
       <c r="O61" t="n">
-        <v>273.0066666666666</v>
+        <v>351.6592156862744</v>
       </c>
       <c r="P61" t="n">
-        <v>273.0066666666666</v>
+        <v>263.7444117647058</v>
       </c>
       <c r="Q61" t="n">
-        <v>204.7549999999999</v>
+        <v>263.7444117647058</v>
       </c>
       <c r="R61" t="n">
-        <v>136.5033333333333</v>
+        <v>175.8296078431372</v>
       </c>
       <c r="S61" t="n">
-        <v>204.7549999999999</v>
+        <v>263.7444117647058</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1205</v>
+        <v>2103</v>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1493.83</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>6671.639999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>719.490588235294</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>654.0823529411764</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>588.6741176470587</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>523.265882352941</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>523.265882352941</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>523.265882352941</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>457.8576470588235</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>392.4494117647058</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>327.0411764705882</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>719.490588235294</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>261.6329411764705</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>261.6329411764705</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>196.2247058823529</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>196.2247058823529</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>130.8164705882353</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>196.2247058823529</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>6501</v>
+        <v>1204</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1670.15</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>6961.389999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>750.7381372549019</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>682.4892156862744</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>614.240294117647</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>545.9913725490195</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>545.9913725490195</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>545.9913725490195</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>477.7424509803921</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>409.4935294117646</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>272.9956862745098</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>750.7381372549019</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>272.9956862745098</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>272.9956862745098</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>272.9956862745098</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>204.7467647058823</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>136.4978431372549</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>204.7467647058823</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>6502</v>
-      </c>
-      <c r="B64" t="n">
-        <v>2469.63</v>
-      </c>
+        <v>1205</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>11113.34</v>
-      </c>
-      <c r="D64" t="n">
-        <v>1222.4674</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1111.334</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1000.2006</v>
-      </c>
-      <c r="G64" t="n">
-        <v>889.0671999999998</v>
-      </c>
-      <c r="H64" t="n">
-        <v>777.9337999999999</v>
-      </c>
-      <c r="I64" t="n">
-        <v>889.0671999999998</v>
-      </c>
-      <c r="J64" t="n">
-        <v>777.9337999999999</v>
-      </c>
-      <c r="K64" t="n">
-        <v>666.8003999999999</v>
-      </c>
-      <c r="L64" t="n">
-        <v>555.6669999999999</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1111.334</v>
-      </c>
-      <c r="N64" t="n">
-        <v>444.5335999999999</v>
-      </c>
-      <c r="O64" t="n">
-        <v>444.5335999999999</v>
-      </c>
-      <c r="P64" t="n">
-        <v>333.4001999999999</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>333.4001999999999</v>
-      </c>
-      <c r="R64" t="n">
-        <v>222.2668</v>
-      </c>
-      <c r="S64" t="n">
-        <v>333.4001999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>6802</v>
-      </c>
-      <c r="B65" t="n">
-        <v>6895.59</v>
-      </c>
+        <v>6501</v>
+      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>35504.39</v>
-      </c>
-      <c r="D65" t="n">
-        <v>4218.343366336633</v>
-      </c>
-      <c r="E65" t="n">
-        <v>3515.286138613862</v>
-      </c>
-      <c r="F65" t="n">
-        <v>3163.757524752475</v>
-      </c>
-      <c r="G65" t="n">
-        <v>3163.757524752475</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3163.757524752475</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2812.228910891089</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2109.171683168317</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1757.643069306931</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1406.114455445545</v>
-      </c>
-      <c r="M65" t="n">
-        <v>3866.814752475248</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1406.114455445545</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1406.114455445545</v>
-      </c>
-      <c r="P65" t="n">
-        <v>1054.585841584158</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>1054.585841584158</v>
-      </c>
-      <c r="R65" t="n">
-        <v>703.0572277227723</v>
-      </c>
-      <c r="S65" t="n">
-        <v>703.0572277227723</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3307</v>
+        <v>6502</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>2469.61</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
+        <v>11113.22</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1222.4542</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1111.322</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1000.1898</v>
+      </c>
+      <c r="G66" t="n">
+        <v>889.0575999999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>777.9253999999999</v>
+      </c>
+      <c r="I66" t="n">
+        <v>889.0575999999999</v>
+      </c>
+      <c r="J66" t="n">
+        <v>777.9253999999999</v>
+      </c>
+      <c r="K66" t="n">
+        <v>666.7931999999997</v>
+      </c>
+      <c r="L66" t="n">
+        <v>555.6609999999998</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1111.322</v>
+      </c>
+      <c r="N66" t="n">
+        <v>444.5287999999999</v>
+      </c>
+      <c r="O66" t="n">
+        <v>444.5287999999999</v>
+      </c>
+      <c r="P66" t="n">
+        <v>333.3965999999999</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>333.3965999999999</v>
+      </c>
+      <c r="R66" t="n">
+        <v>222.2644</v>
+      </c>
+      <c r="S66" t="n">
+        <v>333.3965999999999</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2502</v>
+        <v>6802</v>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>6895.44</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>35503.71</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4218.262574257426</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3515.218811881188</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>3163.696930693069</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>3163.696930693069</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>3163.696930693069</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>2812.17504950495</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>2109.131287128713</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1757.609405940594</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1406.087524752475</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>3866.740693069307</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1406.087524752475</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>1406.087524752475</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>1054.565643564356</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>1054.565643564356</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>703.0437623762376</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>703.0437623762376</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>6705</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
+        <v>3307</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
         <v>0</v>
       </c>
@@ -4293,1359 +4077,1223 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>6803</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
+        <v>2502</v>
+      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>0</v>
       </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" t="n">
-        <v>0</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1304</v>
-      </c>
-      <c r="B70" t="n">
-        <v>759.71</v>
-      </c>
+        <v>6705</v>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>3418.709999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>338.4861386138613</v>
-      </c>
-      <c r="E70" t="n">
-        <v>304.6375247524752</v>
-      </c>
-      <c r="F70" t="n">
-        <v>304.6375247524752</v>
-      </c>
-      <c r="G70" t="n">
-        <v>270.7889108910891</v>
-      </c>
-      <c r="H70" t="n">
-        <v>236.9402970297029</v>
-      </c>
-      <c r="I70" t="n">
-        <v>236.9402970297029</v>
-      </c>
-      <c r="J70" t="n">
-        <v>236.9402970297029</v>
-      </c>
-      <c r="K70" t="n">
-        <v>236.9402970297029</v>
-      </c>
-      <c r="L70" t="n">
-        <v>203.0916831683168</v>
-      </c>
-      <c r="M70" t="n">
-        <v>338.4861386138613</v>
-      </c>
-      <c r="N70" t="n">
-        <v>135.3944554455445</v>
-      </c>
-      <c r="O70" t="n">
-        <v>135.3944554455445</v>
-      </c>
-      <c r="P70" t="n">
-        <v>101.5458415841584</v>
-      </c>
-      <c r="Q70" t="n">
-        <v>101.5458415841584</v>
-      </c>
-      <c r="R70" t="n">
-        <v>101.5458415841584</v>
-      </c>
-      <c r="S70" t="n">
-        <v>135.3944554455445</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1306</v>
-      </c>
-      <c r="B71" t="n">
-        <v>680.01</v>
-      </c>
+        <v>6803</v>
+      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>3060.03</v>
-      </c>
-      <c r="D71" t="n">
-        <v>302.9732673267326</v>
-      </c>
-      <c r="E71" t="n">
-        <v>272.6759405940593</v>
-      </c>
-      <c r="F71" t="n">
-        <v>272.6759405940593</v>
-      </c>
-      <c r="G71" t="n">
-        <v>242.3786138613861</v>
-      </c>
-      <c r="H71" t="n">
-        <v>212.0812871287129</v>
-      </c>
-      <c r="I71" t="n">
-        <v>212.0812871287129</v>
-      </c>
-      <c r="J71" t="n">
-        <v>212.0812871287129</v>
-      </c>
-      <c r="K71" t="n">
-        <v>212.0812871287129</v>
-      </c>
-      <c r="L71" t="n">
-        <v>181.7839603960396</v>
-      </c>
-      <c r="M71" t="n">
-        <v>302.9732673267326</v>
-      </c>
-      <c r="N71" t="n">
-        <v>121.1893069306931</v>
-      </c>
-      <c r="O71" t="n">
-        <v>121.1893069306931</v>
-      </c>
-      <c r="P71" t="n">
-        <v>90.89198019801978</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>90.89198019801978</v>
-      </c>
-      <c r="R71" t="n">
-        <v>90.89198019801978</v>
-      </c>
-      <c r="S71" t="n">
-        <v>121.1893069306931</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2402</v>
+        <v>1304</v>
       </c>
       <c r="B72" t="n">
-        <v>2102.72</v>
+        <v>759.67</v>
       </c>
       <c r="C72" t="n">
-        <v>10350.45</v>
+        <v>3418.51</v>
       </c>
       <c r="D72" t="n">
-        <v>1229.756435643564</v>
+        <v>338.4663366336633</v>
       </c>
       <c r="E72" t="n">
-        <v>1127.276732673267</v>
+        <v>304.619702970297</v>
       </c>
       <c r="F72" t="n">
-        <v>1024.79702970297</v>
+        <v>304.619702970297</v>
       </c>
       <c r="G72" t="n">
-        <v>819.8376237623763</v>
+        <v>270.7730693069307</v>
       </c>
       <c r="H72" t="n">
-        <v>819.8376237623763</v>
+        <v>236.9264356435643</v>
       </c>
       <c r="I72" t="n">
-        <v>819.8376237623763</v>
+        <v>236.9264356435643</v>
       </c>
       <c r="J72" t="n">
-        <v>717.3579207920793</v>
+        <v>236.9264356435643</v>
       </c>
       <c r="K72" t="n">
-        <v>614.8782178217822</v>
+        <v>236.9264356435643</v>
       </c>
       <c r="L72" t="n">
-        <v>409.9188118811882</v>
+        <v>203.079801980198</v>
       </c>
       <c r="M72" t="n">
-        <v>1229.756435643564</v>
+        <v>338.4663366336633</v>
       </c>
       <c r="N72" t="n">
-        <v>307.4391089108911</v>
+        <v>135.3865346534653</v>
       </c>
       <c r="O72" t="n">
-        <v>307.4391089108911</v>
+        <v>135.3865346534653</v>
       </c>
       <c r="P72" t="n">
-        <v>307.4391089108911</v>
+        <v>101.539900990099</v>
       </c>
       <c r="Q72" t="n">
-        <v>204.9594059405941</v>
+        <v>101.539900990099</v>
       </c>
       <c r="R72" t="n">
-        <v>204.9594059405941</v>
+        <v>101.539900990099</v>
       </c>
       <c r="S72" t="n">
-        <v>204.9594059405941</v>
+        <v>135.3865346534653</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>6611</v>
+        <v>1306</v>
       </c>
       <c r="B73" t="n">
-        <v>111.1</v>
+        <v>679.96</v>
       </c>
       <c r="C73" t="n">
-        <v>499.9699999999999</v>
+        <v>3059.82</v>
       </c>
       <c r="D73" t="n">
-        <v>55.55222222222221</v>
+        <v>302.9524752475247</v>
       </c>
       <c r="E73" t="n">
-        <v>50.50202020202019</v>
+        <v>272.6572277227722</v>
       </c>
       <c r="F73" t="n">
-        <v>45.45181818181816</v>
+        <v>272.6572277227722</v>
       </c>
       <c r="G73" t="n">
-        <v>40.40161616161615</v>
+        <v>242.3619801980198</v>
       </c>
       <c r="H73" t="n">
-        <v>35.35141414141413</v>
+        <v>212.0667326732673</v>
       </c>
       <c r="I73" t="n">
-        <v>35.35141414141413</v>
+        <v>212.0667326732673</v>
       </c>
       <c r="J73" t="n">
-        <v>35.35141414141413</v>
+        <v>212.0667326732673</v>
       </c>
       <c r="K73" t="n">
-        <v>30.30121212121211</v>
+        <v>212.0667326732673</v>
       </c>
       <c r="L73" t="n">
-        <v>25.2510101010101</v>
+        <v>181.7714851485148</v>
       </c>
       <c r="M73" t="n">
-        <v>50.50202020202019</v>
+        <v>302.9524752475247</v>
       </c>
       <c r="N73" t="n">
-        <v>20.20080808080808</v>
+        <v>121.1809900990099</v>
       </c>
       <c r="O73" t="n">
-        <v>20.20080808080808</v>
+        <v>121.1809900990099</v>
       </c>
       <c r="P73" t="n">
-        <v>15.15060606060606</v>
+        <v>90.88574257425741</v>
       </c>
       <c r="Q73" t="n">
-        <v>15.15060606060606</v>
+        <v>90.88574257425741</v>
       </c>
       <c r="R73" t="n">
-        <v>10.10040404040404</v>
+        <v>90.88574257425741</v>
       </c>
       <c r="S73" t="n">
-        <v>15.15060606060606</v>
+        <v>121.1809900990099</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>6607</v>
+        <v>2402</v>
       </c>
       <c r="B74" t="n">
-        <v>1161.28</v>
+        <v>2101.76</v>
       </c>
       <c r="C74" t="n">
-        <v>4889.359999999998</v>
+        <v>10346.14</v>
       </c>
       <c r="D74" t="n">
-        <v>543.262222222222</v>
+        <v>1229.244356435643</v>
       </c>
       <c r="E74" t="n">
-        <v>493.8747474747473</v>
+        <v>1126.807326732673</v>
       </c>
       <c r="F74" t="n">
-        <v>444.4872727272725</v>
+        <v>1024.370297029703</v>
       </c>
       <c r="G74" t="n">
-        <v>395.0997979797979</v>
+        <v>819.4962376237623</v>
       </c>
       <c r="H74" t="n">
-        <v>345.7123232323231</v>
+        <v>819.4962376237623</v>
       </c>
       <c r="I74" t="n">
-        <v>345.7123232323231</v>
+        <v>819.4962376237623</v>
       </c>
       <c r="J74" t="n">
-        <v>345.7123232323231</v>
+        <v>717.0592079207921</v>
       </c>
       <c r="K74" t="n">
-        <v>296.3248484848484</v>
+        <v>614.6221782178217</v>
       </c>
       <c r="L74" t="n">
-        <v>246.9373737373737</v>
+        <v>409.7481188118812</v>
       </c>
       <c r="M74" t="n">
-        <v>493.8747474747473</v>
+        <v>1229.244356435643</v>
       </c>
       <c r="N74" t="n">
-        <v>197.5498989898989</v>
+        <v>307.3110891089108</v>
       </c>
       <c r="O74" t="n">
-        <v>197.5498989898989</v>
+        <v>307.3110891089108</v>
       </c>
       <c r="P74" t="n">
-        <v>148.1624242424242</v>
+        <v>307.3110891089108</v>
       </c>
       <c r="Q74" t="n">
-        <v>148.1624242424242</v>
+        <v>204.8740594059406</v>
       </c>
       <c r="R74" t="n">
-        <v>98.77494949494947</v>
+        <v>204.8740594059406</v>
       </c>
       <c r="S74" t="n">
-        <v>148.1624242424242</v>
+        <v>204.8740594059406</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>3606</v>
-      </c>
-      <c r="B75" t="n">
-        <v>800.5599999999999</v>
-      </c>
+        <v>6611</v>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>3191.459999999999</v>
-      </c>
-      <c r="D75" t="n">
-        <v>354.6066666666666</v>
-      </c>
-      <c r="E75" t="n">
-        <v>290.1327272727272</v>
-      </c>
-      <c r="F75" t="n">
-        <v>257.8957575757575</v>
-      </c>
-      <c r="G75" t="n">
-        <v>225.6587878787878</v>
-      </c>
-      <c r="H75" t="n">
-        <v>257.8957575757575</v>
-      </c>
-      <c r="I75" t="n">
-        <v>257.8957575757575</v>
-      </c>
-      <c r="J75" t="n">
-        <v>225.6587878787878</v>
-      </c>
-      <c r="K75" t="n">
-        <v>193.4218181818181</v>
-      </c>
-      <c r="L75" t="n">
-        <v>128.9478787878788</v>
-      </c>
-      <c r="M75" t="n">
-        <v>322.3696969696969</v>
-      </c>
-      <c r="N75" t="n">
-        <v>128.9478787878788</v>
-      </c>
-      <c r="O75" t="n">
-        <v>128.9478787878788</v>
-      </c>
-      <c r="P75" t="n">
-        <v>128.9478787878788</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>96.71090909090906</v>
-      </c>
-      <c r="R75" t="n">
-        <v>96.71090909090906</v>
-      </c>
-      <c r="S75" t="n">
-        <v>96.71090909090906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3604</v>
+        <v>6607</v>
       </c>
       <c r="B76" t="n">
-        <v>846.9299999999999</v>
+        <v>1161.28</v>
       </c>
       <c r="C76" t="n">
-        <v>3372.739999999999</v>
+        <v>4889.359999999998</v>
       </c>
       <c r="D76" t="n">
-        <v>374.7488888888888</v>
+        <v>543.262222222222</v>
       </c>
       <c r="E76" t="n">
-        <v>306.6127272727271</v>
+        <v>493.8747474747473</v>
       </c>
       <c r="F76" t="n">
-        <v>272.5446464646463</v>
+        <v>444.4872727272725</v>
       </c>
       <c r="G76" t="n">
-        <v>238.4765656565656</v>
+        <v>395.0997979797979</v>
       </c>
       <c r="H76" t="n">
-        <v>272.5446464646463</v>
+        <v>345.7123232323231</v>
       </c>
       <c r="I76" t="n">
-        <v>272.5446464646463</v>
+        <v>345.7123232323231</v>
       </c>
       <c r="J76" t="n">
-        <v>238.4765656565656</v>
+        <v>345.7123232323231</v>
       </c>
       <c r="K76" t="n">
-        <v>204.4084848484848</v>
+        <v>296.3248484848484</v>
       </c>
       <c r="L76" t="n">
-        <v>136.2723232323232</v>
+        <v>246.9373737373737</v>
       </c>
       <c r="M76" t="n">
-        <v>340.6808080808079</v>
+        <v>493.8747474747473</v>
       </c>
       <c r="N76" t="n">
-        <v>136.2723232323232</v>
+        <v>197.5498989898989</v>
       </c>
       <c r="O76" t="n">
-        <v>136.2723232323232</v>
+        <v>197.5498989898989</v>
       </c>
       <c r="P76" t="n">
-        <v>136.2723232323232</v>
+        <v>148.1624242424242</v>
       </c>
       <c r="Q76" t="n">
-        <v>102.2042424242424</v>
+        <v>148.1624242424242</v>
       </c>
       <c r="R76" t="n">
-        <v>102.2042424242424</v>
+        <v>98.77494949494947</v>
       </c>
       <c r="S76" t="n">
-        <v>102.2042424242424</v>
+        <v>148.1624242424242</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="B77" t="n">
-        <v>387.67</v>
+        <v>800.45</v>
       </c>
       <c r="C77" t="n">
-        <v>1558.809999999999</v>
+        <v>3190.949999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>173.2011111111111</v>
+        <v>354.5499999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>141.7099999999999</v>
+        <v>290.0863636363635</v>
       </c>
       <c r="F77" t="n">
-        <v>125.9644444444444</v>
+        <v>257.8545454545454</v>
       </c>
       <c r="G77" t="n">
-        <v>110.2188888888889</v>
+        <v>225.6227272727272</v>
       </c>
       <c r="H77" t="n">
-        <v>125.9644444444444</v>
+        <v>257.8545454545454</v>
       </c>
       <c r="I77" t="n">
-        <v>125.9644444444444</v>
+        <v>257.8545454545454</v>
       </c>
       <c r="J77" t="n">
-        <v>110.2188888888889</v>
+        <v>225.6227272727272</v>
       </c>
       <c r="K77" t="n">
-        <v>94.4733333333333</v>
+        <v>193.390909090909</v>
       </c>
       <c r="L77" t="n">
-        <v>62.98222222222221</v>
+        <v>128.9272727272727</v>
       </c>
       <c r="M77" t="n">
-        <v>157.4555555555555</v>
+        <v>322.3181818181817</v>
       </c>
       <c r="N77" t="n">
-        <v>62.98222222222221</v>
+        <v>128.9272727272727</v>
       </c>
       <c r="O77" t="n">
-        <v>62.98222222222221</v>
+        <v>128.9272727272727</v>
       </c>
       <c r="P77" t="n">
-        <v>62.98222222222221</v>
+        <v>128.9272727272727</v>
       </c>
       <c r="Q77" t="n">
-        <v>47.23666666666665</v>
+        <v>96.69545454545451</v>
       </c>
       <c r="R77" t="n">
-        <v>47.23666666666665</v>
+        <v>96.69545454545451</v>
       </c>
       <c r="S77" t="n">
-        <v>47.23666666666665</v>
+        <v>96.69545454545451</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2403</v>
+        <v>3604</v>
       </c>
       <c r="B78" t="n">
-        <v>1939.01</v>
+        <v>846.8200000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>9942.619999999999</v>
+        <v>3372.249999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>1181.301386138614</v>
+        <v>374.6944444444443</v>
       </c>
       <c r="E78" t="n">
-        <v>1082.859603960396</v>
+        <v>306.5681818181817</v>
       </c>
       <c r="F78" t="n">
-        <v>984.4178217821783</v>
+        <v>272.5050505050505</v>
       </c>
       <c r="G78" t="n">
-        <v>787.5342574257427</v>
+        <v>238.4419191919191</v>
       </c>
       <c r="H78" t="n">
-        <v>787.5342574257427</v>
+        <v>272.5050505050505</v>
       </c>
       <c r="I78" t="n">
-        <v>787.5342574257427</v>
+        <v>272.5050505050505</v>
       </c>
       <c r="J78" t="n">
-        <v>689.0924752475248</v>
+        <v>238.4419191919191</v>
       </c>
       <c r="K78" t="n">
-        <v>590.650693069307</v>
+        <v>204.3787878787878</v>
       </c>
       <c r="L78" t="n">
-        <v>393.7671287128713</v>
+        <v>136.2525252525252</v>
       </c>
       <c r="M78" t="n">
-        <v>1181.301386138614</v>
+        <v>340.631313131313</v>
       </c>
       <c r="N78" t="n">
-        <v>295.3253465346535</v>
+        <v>136.2525252525252</v>
       </c>
       <c r="O78" t="n">
-        <v>295.3253465346535</v>
+        <v>136.2525252525252</v>
       </c>
       <c r="P78" t="n">
-        <v>295.3253465346535</v>
+        <v>136.2525252525252</v>
       </c>
       <c r="Q78" t="n">
-        <v>196.8835643564357</v>
+        <v>102.1893939393939</v>
       </c>
       <c r="R78" t="n">
-        <v>196.8835643564357</v>
+        <v>102.1893939393939</v>
       </c>
       <c r="S78" t="n">
-        <v>196.8835643564357</v>
+        <v>102.1893939393939</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3601</v>
+        <v>3609</v>
       </c>
       <c r="B79" t="n">
-        <v>187.76</v>
+        <v>387.58</v>
       </c>
       <c r="C79" t="n">
-        <v>739.8999999999999</v>
+        <v>1558.429999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>82.21111111111108</v>
+        <v>173.1588888888888</v>
       </c>
       <c r="E79" t="n">
-        <v>67.26363636363634</v>
+        <v>141.6754545454545</v>
       </c>
       <c r="F79" t="n">
-        <v>59.78989898989897</v>
+        <v>125.9337373737373</v>
       </c>
       <c r="G79" t="n">
-        <v>52.3161616161616</v>
+        <v>110.1920202020202</v>
       </c>
       <c r="H79" t="n">
-        <v>59.78989898989897</v>
+        <v>125.9337373737373</v>
       </c>
       <c r="I79" t="n">
-        <v>59.78989898989897</v>
+        <v>125.9337373737373</v>
       </c>
       <c r="J79" t="n">
-        <v>52.3161616161616</v>
+        <v>110.1920202020202</v>
       </c>
       <c r="K79" t="n">
-        <v>44.84242424242423</v>
+        <v>94.450303030303</v>
       </c>
       <c r="L79" t="n">
-        <v>29.89494949494949</v>
+        <v>62.96686868686867</v>
       </c>
       <c r="M79" t="n">
-        <v>74.73737373737372</v>
+        <v>157.4171717171717</v>
       </c>
       <c r="N79" t="n">
-        <v>29.89494949494949</v>
+        <v>62.96686868686867</v>
       </c>
       <c r="O79" t="n">
-        <v>29.89494949494949</v>
+        <v>62.96686868686867</v>
       </c>
       <c r="P79" t="n">
-        <v>29.89494949494949</v>
+        <v>62.96686868686867</v>
       </c>
       <c r="Q79" t="n">
-        <v>22.42121212121211</v>
+        <v>47.2251515151515</v>
       </c>
       <c r="R79" t="n">
-        <v>22.42121212121211</v>
+        <v>47.2251515151515</v>
       </c>
       <c r="S79" t="n">
-        <v>22.42121212121211</v>
+        <v>47.2251515151515</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>3602</v>
+        <v>2403</v>
       </c>
       <c r="B80" t="n">
-        <v>1078.25</v>
+        <v>1938.97</v>
       </c>
       <c r="C80" t="n">
-        <v>4264.609999999999</v>
+        <v>9942.389999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>473.8455555555554</v>
+        <v>1181.274059405941</v>
       </c>
       <c r="E80" t="n">
-        <v>387.691818181818</v>
+        <v>1082.834554455445</v>
       </c>
       <c r="F80" t="n">
-        <v>344.6149494949494</v>
+        <v>984.3950495049505</v>
       </c>
       <c r="G80" t="n">
-        <v>301.5380808080807</v>
+        <v>787.5160396039604</v>
       </c>
       <c r="H80" t="n">
-        <v>344.6149494949494</v>
+        <v>787.5160396039604</v>
       </c>
       <c r="I80" t="n">
-        <v>344.6149494949494</v>
+        <v>787.5160396039604</v>
       </c>
       <c r="J80" t="n">
-        <v>301.5380808080807</v>
+        <v>689.0765346534654</v>
       </c>
       <c r="K80" t="n">
-        <v>258.461212121212</v>
+        <v>590.6370297029703</v>
       </c>
       <c r="L80" t="n">
-        <v>172.3074747474747</v>
+        <v>393.7580198019802</v>
       </c>
       <c r="M80" t="n">
-        <v>430.7686868686867</v>
+        <v>1181.274059405941</v>
       </c>
       <c r="N80" t="n">
-        <v>172.3074747474747</v>
+        <v>295.3185148514851</v>
       </c>
       <c r="O80" t="n">
-        <v>172.3074747474747</v>
+        <v>295.3185148514851</v>
       </c>
       <c r="P80" t="n">
-        <v>172.3074747474747</v>
+        <v>295.3185148514851</v>
       </c>
       <c r="Q80" t="n">
-        <v>129.230606060606</v>
+        <v>196.8790099009901</v>
       </c>
       <c r="R80" t="n">
-        <v>129.230606060606</v>
+        <v>196.8790099009901</v>
       </c>
       <c r="S80" t="n">
-        <v>129.230606060606</v>
+        <v>196.8790099009901</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>3610</v>
+        <v>3601</v>
       </c>
       <c r="B81" t="n">
-        <v>643.67</v>
+        <v>187.76</v>
       </c>
       <c r="C81" t="n">
-        <v>2578.159999999999</v>
+        <v>739.8699999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>286.4622222222221</v>
+        <v>82.20777777777775</v>
       </c>
       <c r="E81" t="n">
-        <v>234.3781818181817</v>
+        <v>67.26090909090907</v>
       </c>
       <c r="F81" t="n">
-        <v>208.3361616161615</v>
+        <v>59.78747474747473</v>
       </c>
       <c r="G81" t="n">
-        <v>182.2941414141414</v>
+        <v>52.31404040404039</v>
       </c>
       <c r="H81" t="n">
-        <v>208.3361616161615</v>
+        <v>59.78747474747473</v>
       </c>
       <c r="I81" t="n">
-        <v>208.3361616161615</v>
+        <v>59.78747474747473</v>
       </c>
       <c r="J81" t="n">
-        <v>182.2941414141414</v>
+        <v>52.31404040404039</v>
       </c>
       <c r="K81" t="n">
-        <v>156.2521212121212</v>
+        <v>44.84060606060605</v>
       </c>
       <c r="L81" t="n">
-        <v>104.1680808080808</v>
+        <v>29.89373737373737</v>
       </c>
       <c r="M81" t="n">
-        <v>260.4202020202019</v>
+        <v>74.73434343434342</v>
       </c>
       <c r="N81" t="n">
-        <v>104.1680808080808</v>
+        <v>29.89373737373737</v>
       </c>
       <c r="O81" t="n">
-        <v>104.1680808080808</v>
+        <v>29.89373737373737</v>
       </c>
       <c r="P81" t="n">
-        <v>104.1680808080808</v>
+        <v>29.89373737373737</v>
       </c>
       <c r="Q81" t="n">
-        <v>78.12606060606058</v>
+        <v>22.42030303030302</v>
       </c>
       <c r="R81" t="n">
-        <v>78.12606060606058</v>
+        <v>22.42030303030302</v>
       </c>
       <c r="S81" t="n">
-        <v>78.12606060606058</v>
+        <v>22.42030303030302</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>3603</v>
+        <v>3602</v>
       </c>
       <c r="B82" t="n">
-        <v>623.17</v>
+        <v>1078.18</v>
       </c>
       <c r="C82" t="n">
-        <v>2498.009999999999</v>
+        <v>4264.289999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>277.5566666666666</v>
+        <v>473.8099999999998</v>
       </c>
       <c r="E82" t="n">
-        <v>227.0918181818181</v>
+        <v>387.6627272727271</v>
       </c>
       <c r="F82" t="n">
-        <v>201.8593939393939</v>
+        <v>344.5890909090908</v>
       </c>
       <c r="G82" t="n">
-        <v>176.6269696969697</v>
+        <v>301.5154545454545</v>
       </c>
       <c r="H82" t="n">
-        <v>201.8593939393939</v>
+        <v>344.5890909090908</v>
       </c>
       <c r="I82" t="n">
-        <v>201.8593939393939</v>
+        <v>344.5890909090908</v>
       </c>
       <c r="J82" t="n">
-        <v>176.6269696969697</v>
+        <v>301.5154545454545</v>
       </c>
       <c r="K82" t="n">
-        <v>151.3945454545454</v>
+        <v>258.4418181818181</v>
       </c>
       <c r="L82" t="n">
-        <v>100.9296969696969</v>
+        <v>172.2945454545454</v>
       </c>
       <c r="M82" t="n">
-        <v>252.3242424242424</v>
+        <v>430.7363636363635</v>
       </c>
       <c r="N82" t="n">
-        <v>100.9296969696969</v>
+        <v>172.2945454545454</v>
       </c>
       <c r="O82" t="n">
-        <v>100.9296969696969</v>
+        <v>172.2945454545454</v>
       </c>
       <c r="P82" t="n">
-        <v>100.9296969696969</v>
+        <v>172.2945454545454</v>
       </c>
       <c r="Q82" t="n">
-        <v>75.6972727272727</v>
+        <v>129.2209090909091</v>
       </c>
       <c r="R82" t="n">
-        <v>75.6972727272727</v>
+        <v>129.2209090909091</v>
       </c>
       <c r="S82" t="n">
-        <v>75.6972727272727</v>
+        <v>129.2209090909091</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2501</v>
+        <v>3610</v>
       </c>
       <c r="B83" t="n">
-        <v>3136.35</v>
+        <v>643.5599999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>13933.55</v>
+        <v>2577.63</v>
       </c>
       <c r="D83" t="n">
-        <v>1639.241176470588</v>
+        <v>286.4033333333333</v>
       </c>
       <c r="E83" t="n">
-        <v>1502.637745098039</v>
+        <v>234.3299999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>1366.03431372549</v>
+        <v>208.2933333333333</v>
       </c>
       <c r="G83" t="n">
-        <v>1229.430882352941</v>
+        <v>182.2566666666666</v>
       </c>
       <c r="H83" t="n">
-        <v>1092.827450980392</v>
+        <v>208.2933333333333</v>
       </c>
       <c r="I83" t="n">
-        <v>1092.827450980392</v>
+        <v>208.2933333333333</v>
       </c>
       <c r="J83" t="n">
-        <v>956.2240196078432</v>
+        <v>182.2566666666666</v>
       </c>
       <c r="K83" t="n">
-        <v>683.0171568627451</v>
+        <v>156.22</v>
       </c>
       <c r="L83" t="n">
-        <v>546.413725490196</v>
+        <v>104.1466666666666</v>
       </c>
       <c r="M83" t="n">
-        <v>1639.241176470588</v>
+        <v>260.3666666666666</v>
       </c>
       <c r="N83" t="n">
-        <v>546.413725490196</v>
+        <v>104.1466666666666</v>
       </c>
       <c r="O83" t="n">
-        <v>409.810294117647</v>
+        <v>104.1466666666666</v>
       </c>
       <c r="P83" t="n">
-        <v>409.810294117647</v>
+        <v>104.1466666666666</v>
       </c>
       <c r="Q83" t="n">
-        <v>273.206862745098</v>
+        <v>78.10999999999999</v>
       </c>
       <c r="R83" t="n">
-        <v>273.206862745098</v>
+        <v>78.10999999999999</v>
       </c>
       <c r="S83" t="n">
-        <v>273.206862745098</v>
+        <v>78.10999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2504</v>
+        <v>3603</v>
       </c>
       <c r="B84" t="n">
-        <v>1602.49</v>
+        <v>623.05</v>
       </c>
       <c r="C84" t="n">
-        <v>6663.68</v>
+        <v>2497.469999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>725.7473267326733</v>
+        <v>277.4966666666666</v>
       </c>
       <c r="E84" t="n">
-        <v>659.770297029703</v>
+        <v>227.0427272727271</v>
       </c>
       <c r="F84" t="n">
-        <v>593.7932673267327</v>
+        <v>201.8157575757575</v>
       </c>
       <c r="G84" t="n">
-        <v>527.8162376237624</v>
+        <v>176.5887878787878</v>
       </c>
       <c r="H84" t="n">
-        <v>527.8162376237624</v>
+        <v>201.8157575757575</v>
       </c>
       <c r="I84" t="n">
-        <v>527.8162376237624</v>
+        <v>201.8157575757575</v>
       </c>
       <c r="J84" t="n">
-        <v>527.8162376237624</v>
+        <v>176.5887878787878</v>
       </c>
       <c r="K84" t="n">
-        <v>395.8621782178218</v>
+        <v>151.3618181818181</v>
       </c>
       <c r="L84" t="n">
-        <v>263.9081188118812</v>
+        <v>100.9078787878788</v>
       </c>
       <c r="M84" t="n">
-        <v>725.7473267326733</v>
+        <v>252.2696969696969</v>
       </c>
       <c r="N84" t="n">
-        <v>263.9081188118812</v>
+        <v>100.9078787878788</v>
       </c>
       <c r="O84" t="n">
-        <v>263.9081188118812</v>
+        <v>100.9078787878788</v>
       </c>
       <c r="P84" t="n">
-        <v>197.9310891089109</v>
+        <v>100.9078787878788</v>
       </c>
       <c r="Q84" t="n">
-        <v>197.9310891089109</v>
+        <v>75.68090909090905</v>
       </c>
       <c r="R84" t="n">
-        <v>131.9540594059406</v>
+        <v>75.68090909090905</v>
       </c>
       <c r="S84" t="n">
-        <v>131.9540594059406</v>
+        <v>75.68090909090905</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>304</v>
+        <v>2501</v>
       </c>
       <c r="B85" t="n">
-        <v>957.05</v>
+        <v>3136.14</v>
       </c>
       <c r="C85" t="n">
-        <v>4337.709999999999</v>
+        <v>13932.62</v>
       </c>
       <c r="D85" t="n">
-        <v>382.7391176470587</v>
+        <v>1639.131764705882</v>
       </c>
       <c r="E85" t="n">
-        <v>340.2125490196078</v>
+        <v>1502.537450980392</v>
       </c>
       <c r="F85" t="n">
-        <v>297.6859803921568</v>
+        <v>1365.943137254902</v>
       </c>
       <c r="G85" t="n">
-        <v>297.6859803921568</v>
+        <v>1229.348823529412</v>
       </c>
       <c r="H85" t="n">
-        <v>255.1594117647058</v>
+        <v>1092.754509803922</v>
       </c>
       <c r="I85" t="n">
-        <v>297.6859803921568</v>
+        <v>1092.754509803922</v>
       </c>
       <c r="J85" t="n">
-        <v>297.6859803921568</v>
+        <v>956.1601960784315</v>
       </c>
       <c r="K85" t="n">
-        <v>255.1594117647058</v>
+        <v>682.971568627451</v>
       </c>
       <c r="L85" t="n">
-        <v>255.1594117647058</v>
+        <v>546.3772549019608</v>
       </c>
       <c r="M85" t="n">
-        <v>340.2125490196078</v>
+        <v>1639.131764705882</v>
       </c>
       <c r="N85" t="n">
-        <v>255.1594117647058</v>
+        <v>546.3772549019608</v>
       </c>
       <c r="O85" t="n">
-        <v>255.1594117647058</v>
+        <v>409.7829411764706</v>
       </c>
       <c r="P85" t="n">
-        <v>212.6328431372549</v>
+        <v>409.7829411764706</v>
       </c>
       <c r="Q85" t="n">
-        <v>170.1062745098039</v>
+        <v>273.1886274509804</v>
       </c>
       <c r="R85" t="n">
-        <v>127.5797058823529</v>
+        <v>273.1886274509804</v>
       </c>
       <c r="S85" t="n">
-        <v>297.6859803921568</v>
+        <v>273.1886274509804</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>303</v>
+        <v>2504</v>
       </c>
       <c r="B86" t="n">
-        <v>531.0700000000001</v>
+        <v>1602.34</v>
       </c>
       <c r="C86" t="n">
-        <v>2410.829999999999</v>
+        <v>6663.03</v>
       </c>
       <c r="D86" t="n">
-        <v>216.9747</v>
+        <v>725.6765346534653</v>
       </c>
       <c r="E86" t="n">
-        <v>192.8664</v>
+        <v>659.7059405940594</v>
       </c>
       <c r="F86" t="n">
-        <v>168.7581</v>
+        <v>593.7353465346534</v>
       </c>
       <c r="G86" t="n">
-        <v>168.7581</v>
+        <v>527.7647524752475</v>
       </c>
       <c r="H86" t="n">
-        <v>168.7581</v>
+        <v>527.7647524752475</v>
       </c>
       <c r="I86" t="n">
-        <v>168.7581</v>
+        <v>527.7647524752475</v>
       </c>
       <c r="J86" t="n">
-        <v>168.7581</v>
+        <v>527.7647524752475</v>
       </c>
       <c r="K86" t="n">
-        <v>144.6498</v>
+        <v>395.8235643564356</v>
       </c>
       <c r="L86" t="n">
-        <v>144.6498</v>
+        <v>263.8823762376238</v>
       </c>
       <c r="M86" t="n">
-        <v>192.8664</v>
+        <v>725.6765346534653</v>
       </c>
       <c r="N86" t="n">
-        <v>120.5415</v>
+        <v>263.8823762376238</v>
       </c>
       <c r="O86" t="n">
-        <v>120.5415</v>
+        <v>263.8823762376238</v>
       </c>
       <c r="P86" t="n">
-        <v>96.43319999999999</v>
+        <v>197.9117821782178</v>
       </c>
       <c r="Q86" t="n">
-        <v>96.43319999999999</v>
+        <v>197.9117821782178</v>
       </c>
       <c r="R86" t="n">
-        <v>72.32489999999999</v>
+        <v>131.9411881188119</v>
       </c>
       <c r="S86" t="n">
-        <v>168.7581</v>
+        <v>131.9411881188119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B87" t="n">
-        <v>5266.97</v>
+        <v>955.88</v>
       </c>
       <c r="C87" t="n">
-        <v>23767.36</v>
+        <v>4301.449999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>2376.735999999999</v>
+        <v>379.5397058823528</v>
       </c>
       <c r="E87" t="n">
-        <v>2139.0624</v>
+        <v>337.3686274509803</v>
       </c>
       <c r="F87" t="n">
-        <v>2139.0624</v>
+        <v>295.1975490196078</v>
       </c>
       <c r="G87" t="n">
-        <v>1901.3888</v>
+        <v>295.1975490196078</v>
       </c>
       <c r="H87" t="n">
-        <v>1663.7152</v>
+        <v>253.0264705882352</v>
       </c>
       <c r="I87" t="n">
-        <v>1901.3888</v>
+        <v>295.1975490196078</v>
       </c>
       <c r="J87" t="n">
-        <v>1663.7152</v>
+        <v>295.1975490196078</v>
       </c>
       <c r="K87" t="n">
-        <v>1426.0416</v>
+        <v>253.0264705882352</v>
       </c>
       <c r="L87" t="n">
-        <v>1188.368</v>
+        <v>253.0264705882352</v>
       </c>
       <c r="M87" t="n">
-        <v>2376.735999999999</v>
+        <v>337.3686274509803</v>
       </c>
       <c r="N87" t="n">
-        <v>1188.368</v>
+        <v>253.0264705882352</v>
       </c>
       <c r="O87" t="n">
-        <v>950.6943999999999</v>
+        <v>253.0264705882352</v>
       </c>
       <c r="P87" t="n">
-        <v>950.6943999999999</v>
+        <v>210.8553921568627</v>
       </c>
       <c r="Q87" t="n">
-        <v>713.0207999999998</v>
+        <v>168.6843137254902</v>
       </c>
       <c r="R87" t="n">
-        <v>475.3471999999999</v>
+        <v>126.5132352941176</v>
       </c>
       <c r="S87" t="n">
-        <v>713.0207999999998</v>
+        <v>295.1975490196078</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7651</v>
+        <v>303</v>
       </c>
       <c r="B88" t="n">
-        <v>2630.51</v>
+        <v>530.29</v>
       </c>
       <c r="C88" t="n">
-        <v>10818.23</v>
+        <v>2386.31</v>
       </c>
       <c r="D88" t="n">
-        <v>1092.750505050505</v>
+        <v>214.7678999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>983.4754545454541</v>
+        <v>190.9048</v>
       </c>
       <c r="F88" t="n">
-        <v>874.2004040404038</v>
+        <v>167.0417</v>
       </c>
       <c r="G88" t="n">
-        <v>764.9253535353533</v>
+        <v>167.0417</v>
       </c>
       <c r="H88" t="n">
-        <v>764.9253535353533</v>
+        <v>167.0417</v>
       </c>
       <c r="I88" t="n">
-        <v>764.9253535353533</v>
+        <v>167.0417</v>
       </c>
       <c r="J88" t="n">
-        <v>764.9253535353533</v>
+        <v>167.0417</v>
       </c>
       <c r="K88" t="n">
-        <v>655.6503030303028</v>
+        <v>143.1786</v>
       </c>
       <c r="L88" t="n">
-        <v>546.3752525252523</v>
+        <v>143.1786</v>
       </c>
       <c r="M88" t="n">
-        <v>983.4754545454541</v>
+        <v>190.9048</v>
       </c>
       <c r="N88" t="n">
-        <v>546.3752525252523</v>
+        <v>119.3155</v>
       </c>
       <c r="O88" t="n">
-        <v>437.1002020202019</v>
+        <v>119.3155</v>
       </c>
       <c r="P88" t="n">
-        <v>437.1002020202019</v>
+        <v>95.45239999999998</v>
       </c>
       <c r="Q88" t="n">
-        <v>327.8251515151514</v>
+        <v>95.45239999999998</v>
       </c>
       <c r="R88" t="n">
-        <v>327.8251515151514</v>
+        <v>71.58929999999998</v>
       </c>
       <c r="S88" t="n">
-        <v>546.3752525252523</v>
+        <v>167.0417</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>7652</v>
+        <v>301</v>
       </c>
       <c r="B89" t="n">
-        <v>1683.28</v>
+        <v>5266.97</v>
       </c>
       <c r="C89" t="n">
-        <v>7024.49</v>
+        <v>23701.35999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>826.4105882352941</v>
+        <v>2370.136</v>
       </c>
       <c r="E89" t="n">
-        <v>757.5430392156862</v>
+        <v>2133.1224</v>
       </c>
       <c r="F89" t="n">
-        <v>619.8079411764705</v>
+        <v>2133.1224</v>
       </c>
       <c r="G89" t="n">
-        <v>550.9403921568627</v>
+        <v>1896.1088</v>
       </c>
       <c r="H89" t="n">
-        <v>550.9403921568627</v>
+        <v>1659.0952</v>
       </c>
       <c r="I89" t="n">
-        <v>550.9403921568627</v>
+        <v>1896.1088</v>
       </c>
       <c r="J89" t="n">
-        <v>482.0728431372549</v>
+        <v>1659.0952</v>
       </c>
       <c r="K89" t="n">
-        <v>413.205294117647</v>
+        <v>1422.0816</v>
       </c>
       <c r="L89" t="n">
-        <v>275.4701960784313</v>
+        <v>1185.068</v>
       </c>
       <c r="M89" t="n">
-        <v>826.4105882352941</v>
+        <v>2370.136</v>
       </c>
       <c r="N89" t="n">
-        <v>275.4701960784313</v>
+        <v>1185.068</v>
       </c>
       <c r="O89" t="n">
-        <v>275.4701960784313</v>
+        <v>948.0543999999999</v>
       </c>
       <c r="P89" t="n">
-        <v>206.6026470588235</v>
+        <v>948.0543999999999</v>
       </c>
       <c r="Q89" t="n">
-        <v>137.7350980392157</v>
+        <v>711.0407999999999</v>
       </c>
       <c r="R89" t="n">
-        <v>137.7350980392157</v>
+        <v>474.0271999999999</v>
       </c>
       <c r="S89" t="n">
-        <v>137.7350980392157</v>
+        <v>711.0407999999999</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>201</v>
+        <v>7651</v>
       </c>
       <c r="B90" t="n">
-        <v>6.4</v>
+        <v>2630.51</v>
       </c>
       <c r="C90" t="n">
-        <v>28.82</v>
+        <v>10818.23</v>
       </c>
       <c r="D90" t="n">
-        <v>3.4584</v>
+        <v>1092.750505050505</v>
       </c>
       <c r="E90" t="n">
-        <v>3.4584</v>
+        <v>983.4754545454541</v>
       </c>
       <c r="F90" t="n">
-        <v>3.1702</v>
+        <v>874.2004040404038</v>
       </c>
       <c r="G90" t="n">
-        <v>2.882</v>
+        <v>764.9253535353533</v>
       </c>
       <c r="H90" t="n">
-        <v>2.3056</v>
+        <v>764.9253535353533</v>
       </c>
       <c r="I90" t="n">
-        <v>2.0174</v>
+        <v>764.9253535353533</v>
       </c>
       <c r="J90" t="n">
-        <v>1.441</v>
+        <v>764.9253535353533</v>
       </c>
       <c r="K90" t="n">
-        <v>1.441</v>
+        <v>655.6503030303028</v>
       </c>
       <c r="L90" t="n">
-        <v>1.441</v>
+        <v>546.3752525252523</v>
       </c>
       <c r="M90" t="n">
-        <v>3.4584</v>
+        <v>983.4754545454541</v>
       </c>
       <c r="N90" t="n">
-        <v>1.1528</v>
+        <v>546.3752525252523</v>
       </c>
       <c r="O90" t="n">
-        <v>0.8645999999999999</v>
+        <v>437.1002020202019</v>
       </c>
       <c r="P90" t="n">
-        <v>0.5764</v>
+        <v>437.1002020202019</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.5764</v>
+        <v>327.8251515151514</v>
       </c>
       <c r="R90" t="n">
-        <v>0.2882</v>
+        <v>327.8251515151514</v>
       </c>
       <c r="S90" t="n">
-        <v>0.2882</v>
+        <v>546.3752525252523</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>6608</v>
+        <v>7652</v>
       </c>
       <c r="B91" t="n">
-        <v>113.79</v>
+        <v>1683.28</v>
       </c>
       <c r="C91" t="n">
-        <v>512.05</v>
+        <v>7024.49</v>
       </c>
       <c r="D91" t="n">
-        <v>61.44599999999999</v>
+        <v>826.4105882352941</v>
       </c>
       <c r="E91" t="n">
-        <v>61.44599999999999</v>
+        <v>757.5430392156862</v>
       </c>
       <c r="F91" t="n">
-        <v>56.3255</v>
+        <v>619.8079411764705</v>
       </c>
       <c r="G91" t="n">
-        <v>51.205</v>
+        <v>550.9403921568627</v>
       </c>
       <c r="H91" t="n">
-        <v>40.964</v>
+        <v>550.9403921568627</v>
       </c>
       <c r="I91" t="n">
-        <v>35.8435</v>
+        <v>550.9403921568627</v>
       </c>
       <c r="J91" t="n">
-        <v>25.6025</v>
+        <v>482.0728431372549</v>
       </c>
       <c r="K91" t="n">
-        <v>25.6025</v>
+        <v>413.205294117647</v>
       </c>
       <c r="L91" t="n">
-        <v>25.6025</v>
+        <v>275.4701960784313</v>
       </c>
       <c r="M91" t="n">
-        <v>61.44599999999999</v>
+        <v>826.4105882352941</v>
       </c>
       <c r="N91" t="n">
-        <v>20.482</v>
+        <v>275.4701960784313</v>
       </c>
       <c r="O91" t="n">
-        <v>15.3615</v>
+        <v>275.4701960784313</v>
       </c>
       <c r="P91" t="n">
-        <v>10.241</v>
+        <v>206.6026470588235</v>
       </c>
       <c r="Q91" t="n">
-        <v>10.241</v>
+        <v>137.7350980392157</v>
       </c>
       <c r="R91" t="n">
-        <v>5.1205</v>
+        <v>137.7350980392157</v>
       </c>
       <c r="S91" t="n">
-        <v>5.1205</v>
+        <v>137.7350980392157</v>
       </c>
     </row>
     <row r="92">

--- a/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2035.xlsx
+++ b/create_forecast_basic/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2035.xlsx
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>1305.974585938328</v>
+        <v>1305.974585938327</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>4028.782627877677</v>
+        <v>4028.782627877679</v>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>3562.081315264884</v>
+        <v>3562.081315264888</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>16419.26684392742</v>
+        <v>16419.26684392741</v>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
@@ -5486,7 +5486,7 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>9312.126350879285</v>
+        <v>9312.126350879276</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>16006.67179520546</v>
+        <v>16006.67179520547</v>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>41206.29972442903</v>
+        <v>41206.29972442905</v>
       </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>30462.1319028655</v>
+        <v>30462.13190286547</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>1585.408676631027</v>
+        <v>1585.408676631028</v>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>7767.603761855494</v>
+        <v>7767.603761855496</v>
       </c>
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>2702.024811113267</v>
+        <v>2702.024811113268</v>
       </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>2450.64542921387</v>
+        <v>2450.645429213871</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>14002.77330770879</v>
+        <v>14002.77330770878</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>10819.42785266067</v>
+        <v>10819.42785266068</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>3302.325848307276</v>
+        <v>3302.325848307274</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>8200.609707374831</v>
+        <v>8200.609707374817</v>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>7565.147748078311</v>
+        <v>7565.147748078309</v>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>38873.11194436985</v>
+        <v>38873.11194436986</v>
       </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>13126.65879021465</v>
+        <v>13126.65879021464</v>
       </c>
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr"/>
@@ -6186,7 +6186,7 @@
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>28192.43851853586</v>
+        <v>28192.43851853588</v>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr"/>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>6554.221491286947</v>
+        <v>6554.22149128695</v>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
@@ -6286,7 +6286,7 @@
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>5523.962508373967</v>
+        <v>5523.962508373966</v>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>4334.755869961611</v>
+        <v>4334.75586996161</v>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr"/>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>684.6527888032921</v>
+        <v>684.6527888032919</v>
       </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr"/>
@@ -6511,7 +6511,7 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>3908.982478132856</v>
+        <v>3908.982478132858</v>
       </c>
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr"/>
@@ -6586,7 +6586,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>2572.230104784569</v>
+        <v>2572.230104784568</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -6811,7 +6811,7 @@
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>4365.397230679947</v>
+        <v>4365.397230679948</v>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr"/>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>7393.24624400836</v>
+        <v>7393.246244008358</v>
       </c>
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr"/>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>3662.288839226992</v>
+        <v>3662.288839226994</v>
       </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr"/>
@@ -6961,7 +6961,7 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>2930.350637406753</v>
+        <v>2930.350637406752</v>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr"/>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>4539.438985356734</v>
+        <v>4539.438985356735</v>
       </c>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7036,7 +7036,7 @@
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>5076.454608832668</v>
+        <v>5076.454608832667</v>
       </c>
       <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr"/>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>5825.420035261761</v>
+        <v>5825.420035261763</v>
       </c>
       <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr"/>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>8630.795795887614</v>
+        <v>8630.79579588761</v>
       </c>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>6044.051117713002</v>
+        <v>6044.051117713</v>
       </c>
       <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr"/>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>7559.63023348912</v>
+        <v>7559.630233489119</v>
       </c>
       <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr"/>
@@ -7186,7 +7186,7 @@
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>52732.69591313533</v>
+        <v>52732.69591313535</v>
       </c>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>45708.33911629152</v>
+        <v>45708.33911629151</v>
       </c>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>49714.81691500927</v>
+        <v>49714.81691500924</v>
       </c>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>53157.45913484146</v>
+        <v>53157.45913484147</v>
       </c>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>80779.67991782594</v>
+        <v>80779.67991782588</v>
       </c>
       <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr"/>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>1787.11255294667</v>
+        <v>1787.112552946668</v>
       </c>
       <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr"/>
@@ -7361,7 +7361,7 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>14647.17629002616</v>
+        <v>14647.17629002615</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr"/>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>8663.070694855525</v>
+        <v>8663.070694855527</v>
       </c>
       <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr"/>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>8448.017542794336</v>
+        <v>8448.01754279434</v>
       </c>
       <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr"/>
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>3175.695756748316</v>
+        <v>3175.695756748315</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr"/>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>4201.549920323966</v>
+        <v>4201.549920323968</v>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>13815.14310002785</v>
+        <v>13815.14310002784</v>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr"/>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>4982.525302121554</v>
+        <v>4982.525302121555</v>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr"/>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>27032.57758342853</v>
+        <v>27032.57758342851</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr"/>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>16652.35572945489</v>
+        <v>16652.35572945491</v>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
@@ -7961,7 +7961,7 @@
       </c>
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>67633.45126126515</v>
+        <v>67633.4512612652</v>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr"/>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
-        <v>12393.11849784211</v>
+        <v>12393.1184978421</v>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr"/>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>9967.999733110724</v>
+        <v>9967.999733110726</v>
       </c>
       <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr"/>
@@ -8161,7 +8161,7 @@
       </c>
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>23143.56242283758</v>
+        <v>23143.56242283759</v>
       </c>
       <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr"/>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>28991.79303543044</v>
+        <v>28991.79303543042</v>
       </c>
       <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
-        <v>40571.91219589894</v>
+        <v>40571.91219589896</v>
       </c>
       <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr"/>
@@ -8286,7 +8286,7 @@
       </c>
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
-        <v>8456.497692722585</v>
+        <v>8456.497692722587</v>
       </c>
       <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr"/>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>6750.274370696202</v>
+        <v>6750.2743706962</v>
       </c>
       <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr"/>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
-        <v>3568.500113139339</v>
+        <v>3568.50011313934</v>
       </c>
       <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr"/>
@@ -8411,7 +8411,7 @@
       </c>
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
-        <v>10791.73007268058</v>
+        <v>10791.73007268057</v>
       </c>
       <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr"/>
@@ -8436,7 +8436,7 @@
       </c>
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
-        <v>4027.039461055915</v>
+        <v>4027.039461055916</v>
       </c>
       <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr"/>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
-        <v>4847.435309741913</v>
+        <v>4847.435309741912</v>
       </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr"/>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>10503.43690607538</v>
+        <v>10503.43690607537</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8711,7 +8711,7 @@
       </c>
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
-        <v>9078.117541041664</v>
+        <v>9078.117541041662</v>
       </c>
       <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr"/>
@@ -8736,7 +8736,7 @@
       </c>
       <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>82514.53891390913</v>
+        <v>82514.53891390911</v>
       </c>
       <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr"/>
@@ -8886,7 +8886,7 @@
       </c>
       <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
-        <v>12981.32504560365</v>
+        <v>12981.32504560363</v>
       </c>
       <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr"/>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="n">
-        <v>7292.747889286994</v>
+        <v>7292.747889286991</v>
       </c>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
-        <v>44448.3346440408</v>
+        <v>44448.33464404079</v>
       </c>
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
-        <v>45832.75476262382</v>
+        <v>45832.75476262381</v>
       </c>
       <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr"/>
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>31424.24010823533</v>
+        <v>31424.24010823532</v>
       </c>
       <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr"/>
@@ -9136,7 +9136,7 @@
       </c>
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
-        <v>43460.86499922544</v>
+        <v>43460.86499922549</v>
       </c>
       <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr"/>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>32247.1773569865</v>
+        <v>32247.17735698649</v>
       </c>
       <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr"/>
